--- a/ks_2/utils/output.xlsx
+++ b/ks_2/utils/output.xlsx
@@ -1122,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56548414-c191-4243-9c00-13097447c061}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{aad418e6-e7a5-4385-aba9-8c227df5018a}">
   <dimension ref="A1:ZX41"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -30130,7 +30130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a41f0537-b108-4d21-8a10-cb875110db5a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d13ab0d0-1021-4db4-937f-115576f23533}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/ks_2/utils/output.xlsx
+++ b/ks_2/utils/output.xlsx
@@ -1122,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{aad418e6-e7a5-4385-aba9-8c227df5018a}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2950f7fa-104d-4026-a180-89b4fac52207}">
   <dimension ref="A1:ZX41"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -30130,7 +30130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d13ab0d0-1021-4db4-937f-115576f23533}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6b929e52-dc8a-4d88-8258-8c5c67facdd2}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/ks_2/utils/output.xlsx
+++ b/ks_2/utils/output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>Унифицированная форма № КС-2
 Утверждена постановлением Госкомстата России от 11.11.99 № 100</t>
@@ -1122,8 +1122,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2950f7fa-104d-4026-a180-89b4fac52207}">
-  <dimension ref="A1:ZX41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{aacd57a6-1989-4c3f-bc01-484456d57a31}">
+  <dimension ref="A1:ZX42"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -22298,178 +22298,183 @@
       <c r="ZU30" s="57"/>
     </row>
     <row r="31" spans="1:700" ht="14.25" customHeight="1">
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="57"/>
-      <c r="AC31" s="57"/>
-      <c r="AD31" s="57"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="57"/>
-      <c r="AI31" s="57"/>
-      <c r="AJ31" s="57"/>
-      <c r="AK31" s="57"/>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="57"/>
-      <c r="AN31" s="57"/>
-      <c r="AO31" s="57"/>
-      <c r="AP31" s="57"/>
-      <c r="AQ31" s="57"/>
-      <c r="AR31" s="57"/>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="57"/>
-      <c r="AU31" s="57"/>
-      <c r="AV31" s="57"/>
-      <c r="AW31" s="57"/>
-      <c r="AX31" s="57"/>
-      <c r="AY31" s="57"/>
-      <c r="AZ31" s="57"/>
-      <c r="BA31" s="57"/>
-      <c r="BB31" s="57"/>
-      <c r="BC31" s="57"/>
-      <c r="BD31" s="57"/>
-      <c r="BE31" s="57"/>
-      <c r="BF31" s="57"/>
-      <c r="BG31" s="57"/>
-      <c r="BH31" s="57"/>
-      <c r="BI31" s="57"/>
-      <c r="BJ31" s="57"/>
-      <c r="BK31" s="57"/>
-      <c r="BL31" s="57"/>
-      <c r="BM31" s="57"/>
-      <c r="BN31" s="57"/>
-      <c r="BO31" s="57"/>
-      <c r="BP31" s="57"/>
-      <c r="BQ31" s="57"/>
-      <c r="BR31" s="57"/>
-      <c r="BS31" s="57"/>
-      <c r="BT31" s="57"/>
-      <c r="BU31" s="57"/>
-      <c r="BV31" s="57"/>
-      <c r="BW31" s="57"/>
-      <c r="BX31" s="57"/>
-      <c r="BY31" s="57"/>
-      <c r="BZ31" s="57"/>
-      <c r="CA31" s="57"/>
-      <c r="CB31" s="57"/>
-      <c r="CC31" s="57"/>
-      <c r="CD31" s="57"/>
-      <c r="CE31" s="57"/>
-      <c r="CF31" s="57"/>
-      <c r="CG31" s="57"/>
-      <c r="CH31" s="57"/>
-      <c r="CI31" s="57"/>
-      <c r="CJ31" s="57"/>
-      <c r="CK31" s="57"/>
-      <c r="CL31" s="57"/>
-      <c r="CM31" s="57"/>
-      <c r="CN31" s="57"/>
-      <c r="CO31" s="57"/>
-      <c r="CP31" s="50" t="s">
-        <v>46</v>
+      <c r="A31" s="87">
+        <v>1</v>
       </c>
-      <c r="CQ31" s="50"/>
-      <c r="CR31" s="50"/>
-      <c r="CS31" s="50"/>
-      <c r="CT31" s="50"/>
-      <c r="CU31" s="50"/>
-      <c r="CV31" s="50"/>
-      <c r="CW31" s="50"/>
-      <c r="CX31" s="50"/>
-      <c r="CY31" s="50"/>
-      <c r="CZ31" s="50"/>
-      <c r="DA31" s="50"/>
-      <c r="DB31" s="50"/>
-      <c r="DC31" s="50"/>
-      <c r="DD31" s="50"/>
-      <c r="DE31" s="50"/>
-      <c r="DF31" s="50"/>
-      <c r="DG31" s="50"/>
-      <c r="DH31" s="50"/>
-      <c r="DI31" s="50"/>
-      <c r="DJ31" s="50"/>
-      <c r="DK31" s="50"/>
-      <c r="DL31" s="50"/>
-      <c r="DM31" s="50"/>
-      <c r="DN31" s="95">
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="89"/>
+      <c r="AE31" s="89"/>
+      <c r="AF31" s="89"/>
+      <c r="AG31" s="89"/>
+      <c r="AH31" s="89"/>
+      <c r="AI31" s="89"/>
+      <c r="AJ31" s="89"/>
+      <c r="AK31" s="89"/>
+      <c r="AL31" s="89"/>
+      <c r="AM31" s="89"/>
+      <c r="AN31" s="89"/>
+      <c r="AO31" s="89"/>
+      <c r="AP31" s="89"/>
+      <c r="AQ31" s="89"/>
+      <c r="AR31" s="89"/>
+      <c r="AS31" s="89"/>
+      <c r="AT31" s="89"/>
+      <c r="AU31" s="89"/>
+      <c r="AV31" s="89"/>
+      <c r="AW31" s="89"/>
+      <c r="AX31" s="89"/>
+      <c r="AY31" s="89"/>
+      <c r="AZ31" s="89"/>
+      <c r="BA31" s="89"/>
+      <c r="BB31" s="89"/>
+      <c r="BC31" s="89"/>
+      <c r="BD31" s="89"/>
+      <c r="BE31" s="89"/>
+      <c r="BF31" s="89"/>
+      <c r="BG31" s="89"/>
+      <c r="BH31" s="89"/>
+      <c r="BI31" s="89"/>
+      <c r="BJ31" s="89"/>
+      <c r="BK31" s="89"/>
+      <c r="BL31" s="89"/>
+      <c r="BM31" s="89"/>
+      <c r="BN31" s="89"/>
+      <c r="BO31" s="89"/>
+      <c r="BP31" s="89"/>
+      <c r="BQ31" s="89"/>
+      <c r="BR31" s="89"/>
+      <c r="BS31" s="89"/>
+      <c r="BT31" s="89"/>
+      <c r="BU31" s="89"/>
+      <c r="BV31" s="89"/>
+      <c r="BW31" s="89"/>
+      <c r="BX31" s="89"/>
+      <c r="BY31" s="89"/>
+      <c r="BZ31" s="89"/>
+      <c r="CA31" s="89"/>
+      <c r="CB31" s="89"/>
+      <c r="CC31" s="89"/>
+      <c r="CD31" s="89"/>
+      <c r="CE31" s="89"/>
+      <c r="CF31" s="89"/>
+      <c r="CG31" s="89"/>
+      <c r="CH31" s="89"/>
+      <c r="CI31" s="89"/>
+      <c r="CJ31" s="89"/>
+      <c r="CK31" s="89"/>
+      <c r="CL31" s="89"/>
+      <c r="CM31" s="89"/>
+      <c r="CN31" s="89"/>
+      <c r="CO31" s="89"/>
+      <c r="CP31" s="91"/>
+      <c r="CQ31" s="91"/>
+      <c r="CR31" s="91"/>
+      <c r="CS31" s="91"/>
+      <c r="CT31" s="91"/>
+      <c r="CU31" s="91"/>
+      <c r="CV31" s="91"/>
+      <c r="CW31" s="91"/>
+      <c r="CX31" s="91"/>
+      <c r="CY31" s="91"/>
+      <c r="CZ31" s="91"/>
+      <c r="DA31" s="91"/>
+      <c r="DB31" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="DC31" s="91"/>
+      <c r="DD31" s="91"/>
+      <c r="DE31" s="91"/>
+      <c r="DF31" s="91"/>
+      <c r="DG31" s="91"/>
+      <c r="DH31" s="91"/>
+      <c r="DI31" s="91"/>
+      <c r="DJ31" s="91"/>
+      <c r="DK31" s="91"/>
+      <c r="DL31" s="91"/>
+      <c r="DM31" s="91"/>
+      <c r="DN31" s="92">
         <v>36526</v>
       </c>
-      <c r="DO31" s="94"/>
-      <c r="DP31" s="94"/>
-      <c r="DQ31" s="94"/>
-      <c r="DR31" s="94"/>
-      <c r="DS31" s="94"/>
-      <c r="DT31" s="94"/>
-      <c r="DU31" s="94"/>
-      <c r="DV31" s="94"/>
-      <c r="DW31" s="94"/>
-      <c r="DX31" s="94"/>
-      <c r="DY31" s="94"/>
-      <c r="DZ31" s="94"/>
-      <c r="EA31" s="94"/>
-      <c r="EB31" s="94"/>
-      <c r="EC31" s="94"/>
-      <c r="ED31" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="EE31" s="78"/>
-      <c r="EF31" s="78"/>
-      <c r="EG31" s="78"/>
-      <c r="EH31" s="78"/>
-      <c r="EI31" s="78"/>
-      <c r="EJ31" s="78"/>
-      <c r="EK31" s="78"/>
-      <c r="EL31" s="78"/>
-      <c r="EM31" s="78"/>
-      <c r="EN31" s="78"/>
-      <c r="EO31" s="78"/>
-      <c r="EP31" s="78"/>
-      <c r="EQ31" s="78"/>
-      <c r="ER31" s="78"/>
-      <c r="ES31" s="78"/>
-      <c r="ET31" s="94" t="s">
+      <c r="DO31" s="91"/>
+      <c r="DP31" s="91"/>
+      <c r="DQ31" s="91"/>
+      <c r="DR31" s="91"/>
+      <c r="DS31" s="91"/>
+      <c r="DT31" s="91"/>
+      <c r="DU31" s="91"/>
+      <c r="DV31" s="91"/>
+      <c r="DW31" s="91"/>
+      <c r="DX31" s="91"/>
+      <c r="DY31" s="91"/>
+      <c r="DZ31" s="91"/>
+      <c r="EA31" s="91"/>
+      <c r="EB31" s="91"/>
+      <c r="EC31" s="91"/>
+      <c r="ED31" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="EU31" s="94"/>
-      <c r="EV31" s="94"/>
-      <c r="EW31" s="94"/>
-      <c r="EX31" s="94"/>
-      <c r="EY31" s="94"/>
-      <c r="EZ31" s="94"/>
-      <c r="FA31" s="94"/>
-      <c r="FB31" s="94"/>
-      <c r="FC31" s="94"/>
-      <c r="FD31" s="94"/>
-      <c r="FE31" s="94"/>
-      <c r="FF31" s="94"/>
-      <c r="FG31" s="94"/>
-      <c r="FH31" s="94"/>
-      <c r="FI31" s="94"/>
+      <c r="EE31" s="91"/>
+      <c r="EF31" s="91"/>
+      <c r="EG31" s="91"/>
+      <c r="EH31" s="91"/>
+      <c r="EI31" s="91"/>
+      <c r="EJ31" s="91"/>
+      <c r="EK31" s="91"/>
+      <c r="EL31" s="91"/>
+      <c r="EM31" s="91"/>
+      <c r="EN31" s="91"/>
+      <c r="EO31" s="91"/>
+      <c r="EP31" s="91"/>
+      <c r="EQ31" s="91"/>
+      <c r="ER31" s="91"/>
+      <c r="ES31" s="91"/>
+      <c r="ET31" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="EU31" s="91"/>
+      <c r="EV31" s="91"/>
+      <c r="EW31" s="91"/>
+      <c r="EX31" s="91"/>
+      <c r="EY31" s="91"/>
+      <c r="EZ31" s="91"/>
+      <c r="FA31" s="91"/>
+      <c r="FB31" s="91"/>
+      <c r="FC31" s="91"/>
+      <c r="FD31" s="91"/>
+      <c r="FE31" s="91"/>
+      <c r="FF31" s="91"/>
+      <c r="FG31" s="91"/>
+      <c r="FH31" s="91"/>
+      <c r="FI31" s="91"/>
       <c r="FK31" s="57"/>
       <c r="FL31" s="57"/>
       <c r="FM31" s="57"/>
@@ -22986,24 +22991,21 @@
       <c r="ZD31" s="57"/>
       <c r="ZE31" s="57"/>
       <c r="ZF31" s="57"/>
-      <c r="ZG31" s="57"/>
-      <c r="ZH31" s="57"/>
-      <c r="ZI31" s="57"/>
-      <c r="ZJ31" s="57"/>
-      <c r="ZK31" s="57"/>
-      <c r="ZL31" s="57"/>
-      <c r="ZM31" s="57"/>
+      <c r="ZG31" s="12"/>
+      <c r="ZI31" s="12"/>
+      <c r="ZK31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="ZL31" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="ZN31" s="57"/>
-      <c r="ZO31" s="57"/>
       <c r="ZP31" s="57"/>
       <c r="ZQ31" s="57"/>
       <c r="ZR31" s="57"/>
       <c r="ZS31" s="57"/>
       <c r="ZT31" s="57"/>
       <c r="ZU31" s="57"/>
-      <c r="ZV31" s="57"/>
-      <c r="ZW31" s="57"/>
-      <c r="ZX31" s="57"/>
     </row>
     <row r="32" spans="1:700" ht="14.25" customHeight="1">
       <c r="B32" s="57"/>
@@ -23098,79 +23100,86 @@
       <c r="CM32" s="57"/>
       <c r="CN32" s="57"/>
       <c r="CO32" s="57"/>
-      <c r="CP32" s="57"/>
-      <c r="CQ32" s="57"/>
-      <c r="CR32" s="57"/>
-      <c r="CS32" s="57"/>
-      <c r="CT32" s="57"/>
-      <c r="CU32" s="57"/>
-      <c r="CV32" s="57"/>
-      <c r="CW32" s="57"/>
-      <c r="CX32" s="57"/>
-      <c r="CY32" s="57"/>
-      <c r="CZ32" s="57"/>
-      <c r="DA32" s="57"/>
-      <c r="DB32" s="57"/>
-      <c r="DC32" s="57"/>
-      <c r="DD32" s="57"/>
-      <c r="DE32" s="57"/>
-      <c r="DF32" s="57"/>
-      <c r="DG32" s="57"/>
-      <c r="DH32" s="57"/>
-      <c r="DI32" s="57"/>
-      <c r="DJ32" s="57"/>
-      <c r="DK32" s="57"/>
-      <c r="DL32" s="57"/>
-      <c r="DM32" s="57"/>
-      <c r="DN32" s="57"/>
-      <c r="DO32" s="57"/>
-      <c r="DP32" s="57"/>
-      <c r="DQ32" s="57"/>
-      <c r="DR32" s="57"/>
-      <c r="DS32" s="57"/>
-      <c r="DT32" s="57"/>
-      <c r="DU32" s="57"/>
-      <c r="DV32" s="57"/>
-      <c r="DW32" s="57"/>
-      <c r="DX32" s="57"/>
-      <c r="DY32" s="57"/>
-      <c r="DZ32" s="57"/>
-      <c r="EA32" s="57"/>
-      <c r="EB32" s="57"/>
-      <c r="EC32" s="57"/>
-      <c r="ED32" s="57"/>
-      <c r="EE32" s="57"/>
-      <c r="EF32" s="57"/>
-      <c r="EG32" s="57"/>
-      <c r="EH32" s="57"/>
-      <c r="EI32" s="57"/>
-      <c r="EJ32" s="57"/>
-      <c r="EK32" s="57"/>
-      <c r="EL32" s="57"/>
-      <c r="EM32" s="57"/>
-      <c r="EN32" s="57"/>
-      <c r="EO32" s="57"/>
-      <c r="EP32" s="57"/>
-      <c r="EQ32" s="57"/>
-      <c r="ER32" s="57"/>
-      <c r="ES32" s="57"/>
-      <c r="ET32" s="57"/>
-      <c r="EU32" s="57"/>
-      <c r="EV32" s="57"/>
-      <c r="EW32" s="57"/>
-      <c r="EX32" s="57"/>
-      <c r="EY32" s="57"/>
-      <c r="EZ32" s="57"/>
-      <c r="FA32" s="57"/>
-      <c r="FB32" s="57"/>
-      <c r="FC32" s="57"/>
-      <c r="FD32" s="57"/>
-      <c r="FE32" s="57"/>
-      <c r="FF32" s="57"/>
-      <c r="FG32" s="57"/>
-      <c r="FH32" s="57"/>
-      <c r="FI32" s="57"/>
-      <c r="FJ32" s="57"/>
+      <c r="CP32" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="CQ32" s="50"/>
+      <c r="CR32" s="50"/>
+      <c r="CS32" s="50"/>
+      <c r="CT32" s="50"/>
+      <c r="CU32" s="50"/>
+      <c r="CV32" s="50"/>
+      <c r="CW32" s="50"/>
+      <c r="CX32" s="50"/>
+      <c r="CY32" s="50"/>
+      <c r="CZ32" s="50"/>
+      <c r="DA32" s="50"/>
+      <c r="DB32" s="50"/>
+      <c r="DC32" s="50"/>
+      <c r="DD32" s="50"/>
+      <c r="DE32" s="50"/>
+      <c r="DF32" s="50"/>
+      <c r="DG32" s="50"/>
+      <c r="DH32" s="50"/>
+      <c r="DI32" s="50"/>
+      <c r="DJ32" s="50"/>
+      <c r="DK32" s="50"/>
+      <c r="DL32" s="50"/>
+      <c r="DM32" s="50"/>
+      <c r="DN32" s="95">
+        <v>36526</v>
+      </c>
+      <c r="DO32" s="94"/>
+      <c r="DP32" s="94"/>
+      <c r="DQ32" s="94"/>
+      <c r="DR32" s="94"/>
+      <c r="DS32" s="94"/>
+      <c r="DT32" s="94"/>
+      <c r="DU32" s="94"/>
+      <c r="DV32" s="94"/>
+      <c r="DW32" s="94"/>
+      <c r="DX32" s="94"/>
+      <c r="DY32" s="94"/>
+      <c r="DZ32" s="94"/>
+      <c r="EA32" s="94"/>
+      <c r="EB32" s="94"/>
+      <c r="EC32" s="94"/>
+      <c r="ED32" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="EE32" s="78"/>
+      <c r="EF32" s="78"/>
+      <c r="EG32" s="78"/>
+      <c r="EH32" s="78"/>
+      <c r="EI32" s="78"/>
+      <c r="EJ32" s="78"/>
+      <c r="EK32" s="78"/>
+      <c r="EL32" s="78"/>
+      <c r="EM32" s="78"/>
+      <c r="EN32" s="78"/>
+      <c r="EO32" s="78"/>
+      <c r="EP32" s="78"/>
+      <c r="EQ32" s="78"/>
+      <c r="ER32" s="78"/>
+      <c r="ES32" s="78"/>
+      <c r="ET32" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="EU32" s="94"/>
+      <c r="EV32" s="94"/>
+      <c r="EW32" s="94"/>
+      <c r="EX32" s="94"/>
+      <c r="EY32" s="94"/>
+      <c r="EZ32" s="94"/>
+      <c r="FA32" s="94"/>
+      <c r="FB32" s="94"/>
+      <c r="FC32" s="94"/>
+      <c r="FD32" s="94"/>
+      <c r="FE32" s="94"/>
+      <c r="FF32" s="94"/>
+      <c r="FG32" s="94"/>
+      <c r="FH32" s="94"/>
+      <c r="FI32" s="94"/>
       <c r="FK32" s="57"/>
       <c r="FL32" s="57"/>
       <c r="FM32" s="57"/>
@@ -23706,7 +23715,7 @@
       <c r="ZW32" s="57"/>
       <c r="ZX32" s="57"/>
     </row>
-    <row r="33" spans="1:700" ht="7.5" customHeight="1">
+    <row r="33" spans="1:700" ht="14.25" customHeight="1">
       <c r="B33" s="57"/>
       <c r="C33" s="57"/>
       <c r="D33" s="57"/>
@@ -24407,7 +24416,7 @@
       <c r="ZW33" s="57"/>
       <c r="ZX33" s="57"/>
     </row>
-    <row r="34" spans="1:700" ht="14.25" customHeight="1">
+    <row r="34" spans="1:700" ht="7.5" customHeight="1">
       <c r="B34" s="57"/>
       <c r="C34" s="57"/>
       <c r="D34" s="57"/>
@@ -24415,167 +24424,164 @@
       <c r="F34" s="57"/>
       <c r="G34" s="57"/>
       <c r="H34" s="57"/>
-      <c r="I34" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="R34" s="96"/>
-      <c r="S34" s="96"/>
-      <c r="T34" s="96"/>
-      <c r="U34" s="96"/>
-      <c r="V34" s="96"/>
-      <c r="W34" s="96"/>
-      <c r="X34" s="96"/>
-      <c r="Y34" s="96"/>
-      <c r="Z34" s="96"/>
-      <c r="AA34" s="96"/>
-      <c r="AB34" s="96"/>
-      <c r="AC34" s="96"/>
-      <c r="AD34" s="96"/>
-      <c r="AE34" s="96"/>
-      <c r="AF34" s="96"/>
-      <c r="AG34" s="96"/>
-      <c r="AH34" s="96"/>
-      <c r="AI34" s="96"/>
-      <c r="AJ34" s="96"/>
-      <c r="AK34" s="96"/>
-      <c r="AL34" s="96"/>
-      <c r="AM34" s="96"/>
-      <c r="AN34" s="96"/>
-      <c r="AO34" s="96"/>
-      <c r="AP34" s="96"/>
-      <c r="AQ34" s="96"/>
-      <c r="AR34" s="96"/>
-      <c r="AS34" s="96"/>
-      <c r="AT34" s="96"/>
-      <c r="AU34" s="96"/>
-      <c r="AV34" s="96"/>
-      <c r="AW34" s="96"/>
-      <c r="AX34" s="96"/>
-      <c r="AY34" s="96"/>
-      <c r="AZ34" s="96"/>
-      <c r="BA34" s="96"/>
-      <c r="BC34" s="97"/>
-      <c r="BD34" s="97"/>
-      <c r="BE34" s="97"/>
-      <c r="BF34" s="97"/>
-      <c r="BG34" s="97"/>
-      <c r="BH34" s="97"/>
-      <c r="BI34" s="97"/>
-      <c r="BJ34" s="97"/>
-      <c r="BK34" s="97"/>
-      <c r="BL34" s="97"/>
-      <c r="BM34" s="97"/>
-      <c r="BN34" s="97"/>
-      <c r="BO34" s="97"/>
-      <c r="BP34" s="97"/>
-      <c r="BQ34" s="97"/>
-      <c r="BR34" s="97"/>
-      <c r="BS34" s="97"/>
-      <c r="BT34" s="97"/>
-      <c r="BU34" s="97"/>
-      <c r="BV34" s="97"/>
-      <c r="BW34" s="97"/>
-      <c r="BX34" s="97"/>
-      <c r="BY34" s="97"/>
-      <c r="BZ34" s="97"/>
-      <c r="CA34" s="97"/>
-      <c r="CB34" s="97"/>
-      <c r="CC34" s="97"/>
-      <c r="CD34" s="97"/>
-      <c r="CE34" s="97"/>
-      <c r="CF34" s="97"/>
-      <c r="CG34" s="97"/>
-      <c r="CH34" s="97"/>
-      <c r="CI34" s="97"/>
-      <c r="CK34" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="CL34" s="96"/>
-      <c r="CM34" s="96"/>
-      <c r="CN34" s="96"/>
-      <c r="CO34" s="96"/>
-      <c r="CP34" s="96"/>
-      <c r="CQ34" s="96"/>
-      <c r="CR34" s="96"/>
-      <c r="CS34" s="96"/>
-      <c r="CT34" s="96"/>
-      <c r="CU34" s="96"/>
-      <c r="CV34" s="96"/>
-      <c r="CW34" s="96"/>
-      <c r="CX34" s="96"/>
-      <c r="CY34" s="96"/>
-      <c r="CZ34" s="96"/>
-      <c r="DA34" s="96"/>
-      <c r="DB34" s="96"/>
-      <c r="DC34" s="96"/>
-      <c r="DD34" s="96"/>
-      <c r="DE34" s="96"/>
-      <c r="DF34" s="96"/>
-      <c r="DG34" s="96"/>
-      <c r="DH34" s="96"/>
-      <c r="DI34" s="96"/>
-      <c r="DJ34" s="96"/>
-      <c r="DK34" s="96"/>
-      <c r="DL34" s="96"/>
-      <c r="DM34" s="96"/>
-      <c r="DN34" s="96"/>
-      <c r="DO34" s="96"/>
-      <c r="DP34" s="96"/>
-      <c r="DQ34" s="96"/>
-      <c r="DR34" s="96"/>
-      <c r="DS34" s="96"/>
-      <c r="DT34" s="96"/>
-      <c r="DU34" s="96"/>
-      <c r="DV34" s="96"/>
-      <c r="DW34" s="96"/>
-      <c r="DX34" s="96"/>
-      <c r="DY34" s="96"/>
-      <c r="DZ34" s="96"/>
-      <c r="EA34" s="96"/>
-      <c r="EB34" s="96"/>
-      <c r="EC34" s="96"/>
-      <c r="ED34" s="96"/>
-      <c r="EE34" s="96"/>
-      <c r="EF34" s="96"/>
-      <c r="EG34" s="96"/>
-      <c r="EH34" s="96"/>
-      <c r="EI34" s="96"/>
-      <c r="EJ34" s="96"/>
-      <c r="EK34" s="96"/>
-      <c r="EL34" s="96"/>
-      <c r="EM34" s="96"/>
-      <c r="EN34" s="96"/>
-      <c r="EO34" s="96"/>
-      <c r="EP34" s="96"/>
-      <c r="EQ34" s="96"/>
-      <c r="ER34" s="96"/>
-      <c r="ES34" s="96"/>
-      <c r="ET34" s="96"/>
-      <c r="EU34" s="96"/>
-      <c r="EV34" s="96"/>
-      <c r="EW34" s="96"/>
-      <c r="EX34" s="96"/>
-      <c r="EY34" s="96"/>
-      <c r="EZ34" s="96"/>
-      <c r="FA34" s="96"/>
-      <c r="FB34" s="96"/>
-      <c r="FC34" s="96"/>
-      <c r="FD34" s="96"/>
-      <c r="FE34" s="96"/>
-      <c r="FF34" s="96"/>
-      <c r="FG34" s="96"/>
-      <c r="FH34" s="96"/>
-      <c r="FI34" s="96"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="57"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="57"/>
+      <c r="AJ34" s="57"/>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="57"/>
+      <c r="AX34" s="57"/>
+      <c r="AY34" s="57"/>
+      <c r="AZ34" s="57"/>
+      <c r="BA34" s="57"/>
+      <c r="BB34" s="57"/>
+      <c r="BC34" s="57"/>
+      <c r="BD34" s="57"/>
+      <c r="BE34" s="57"/>
+      <c r="BF34" s="57"/>
+      <c r="BG34" s="57"/>
+      <c r="BH34" s="57"/>
+      <c r="BI34" s="57"/>
+      <c r="BJ34" s="57"/>
+      <c r="BK34" s="57"/>
+      <c r="BL34" s="57"/>
+      <c r="BM34" s="57"/>
+      <c r="BN34" s="57"/>
+      <c r="BO34" s="57"/>
+      <c r="BP34" s="57"/>
+      <c r="BQ34" s="57"/>
+      <c r="BR34" s="57"/>
+      <c r="BS34" s="57"/>
+      <c r="BT34" s="57"/>
+      <c r="BU34" s="57"/>
+      <c r="BV34" s="57"/>
+      <c r="BW34" s="57"/>
+      <c r="BX34" s="57"/>
+      <c r="BY34" s="57"/>
+      <c r="BZ34" s="57"/>
+      <c r="CA34" s="57"/>
+      <c r="CB34" s="57"/>
+      <c r="CC34" s="57"/>
+      <c r="CD34" s="57"/>
+      <c r="CE34" s="57"/>
+      <c r="CF34" s="57"/>
+      <c r="CG34" s="57"/>
+      <c r="CH34" s="57"/>
+      <c r="CI34" s="57"/>
+      <c r="CJ34" s="57"/>
+      <c r="CK34" s="57"/>
+      <c r="CL34" s="57"/>
+      <c r="CM34" s="57"/>
+      <c r="CN34" s="57"/>
+      <c r="CO34" s="57"/>
+      <c r="CP34" s="57"/>
+      <c r="CQ34" s="57"/>
+      <c r="CR34" s="57"/>
+      <c r="CS34" s="57"/>
+      <c r="CT34" s="57"/>
+      <c r="CU34" s="57"/>
+      <c r="CV34" s="57"/>
+      <c r="CW34" s="57"/>
+      <c r="CX34" s="57"/>
+      <c r="CY34" s="57"/>
+      <c r="CZ34" s="57"/>
+      <c r="DA34" s="57"/>
+      <c r="DB34" s="57"/>
+      <c r="DC34" s="57"/>
+      <c r="DD34" s="57"/>
+      <c r="DE34" s="57"/>
+      <c r="DF34" s="57"/>
+      <c r="DG34" s="57"/>
+      <c r="DH34" s="57"/>
+      <c r="DI34" s="57"/>
+      <c r="DJ34" s="57"/>
+      <c r="DK34" s="57"/>
+      <c r="DL34" s="57"/>
+      <c r="DM34" s="57"/>
+      <c r="DN34" s="57"/>
+      <c r="DO34" s="57"/>
+      <c r="DP34" s="57"/>
+      <c r="DQ34" s="57"/>
+      <c r="DR34" s="57"/>
+      <c r="DS34" s="57"/>
+      <c r="DT34" s="57"/>
+      <c r="DU34" s="57"/>
+      <c r="DV34" s="57"/>
+      <c r="DW34" s="57"/>
+      <c r="DX34" s="57"/>
+      <c r="DY34" s="57"/>
+      <c r="DZ34" s="57"/>
+      <c r="EA34" s="57"/>
+      <c r="EB34" s="57"/>
+      <c r="EC34" s="57"/>
+      <c r="ED34" s="57"/>
+      <c r="EE34" s="57"/>
+      <c r="EF34" s="57"/>
+      <c r="EG34" s="57"/>
+      <c r="EH34" s="57"/>
+      <c r="EI34" s="57"/>
+      <c r="EJ34" s="57"/>
+      <c r="EK34" s="57"/>
+      <c r="EL34" s="57"/>
+      <c r="EM34" s="57"/>
+      <c r="EN34" s="57"/>
+      <c r="EO34" s="57"/>
+      <c r="EP34" s="57"/>
+      <c r="EQ34" s="57"/>
+      <c r="ER34" s="57"/>
+      <c r="ES34" s="57"/>
+      <c r="ET34" s="57"/>
+      <c r="EU34" s="57"/>
+      <c r="EV34" s="57"/>
+      <c r="EW34" s="57"/>
+      <c r="EX34" s="57"/>
+      <c r="EY34" s="57"/>
+      <c r="EZ34" s="57"/>
+      <c r="FA34" s="57"/>
+      <c r="FB34" s="57"/>
+      <c r="FC34" s="57"/>
+      <c r="FD34" s="57"/>
+      <c r="FE34" s="57"/>
+      <c r="FF34" s="57"/>
+      <c r="FG34" s="57"/>
+      <c r="FH34" s="57"/>
+      <c r="FI34" s="57"/>
+      <c r="FJ34" s="57"/>
       <c r="FK34" s="57"/>
       <c r="FL34" s="57"/>
       <c r="FM34" s="57"/>
@@ -25098,20 +25104,20 @@
       <c r="ZJ34" s="57"/>
       <c r="ZK34" s="57"/>
       <c r="ZL34" s="57"/>
-      <c r="ZM34" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="ZN34" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="ZM34" s="57"/>
+      <c r="ZN34" s="57"/>
+      <c r="ZO34" s="57"/>
       <c r="ZP34" s="57"/>
       <c r="ZQ34" s="57"/>
       <c r="ZR34" s="57"/>
       <c r="ZS34" s="57"/>
       <c r="ZT34" s="57"/>
       <c r="ZU34" s="57"/>
+      <c r="ZV34" s="57"/>
+      <c r="ZW34" s="57"/>
+      <c r="ZX34" s="57"/>
     </row>
-    <row r="35" spans="1:700" ht="6.75" customHeight="1">
+    <row r="35" spans="1:700" ht="14.25" customHeight="1">
       <c r="B35" s="57"/>
       <c r="C35" s="57"/>
       <c r="D35" s="57"/>
@@ -25119,167 +25125,167 @@
       <c r="F35" s="57"/>
       <c r="G35" s="57"/>
       <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="21" t="s">
-        <v>51</v>
+      <c r="I35" s="54" t="s">
+        <v>48</v>
       </c>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="21"/>
-      <c r="AD35" s="21"/>
-      <c r="AE35" s="21"/>
-      <c r="AF35" s="21"/>
-      <c r="AG35" s="21"/>
-      <c r="AH35" s="21"/>
-      <c r="AI35" s="21"/>
-      <c r="AJ35" s="21"/>
-      <c r="AK35" s="21"/>
-      <c r="AL35" s="21"/>
-      <c r="AM35" s="21"/>
-      <c r="AN35" s="21"/>
-      <c r="AO35" s="21"/>
-      <c r="AP35" s="21"/>
-      <c r="AQ35" s="21"/>
-      <c r="AR35" s="21"/>
-      <c r="AS35" s="21"/>
-      <c r="AT35" s="21"/>
-      <c r="AU35" s="21"/>
-      <c r="AV35" s="21"/>
-      <c r="AW35" s="21"/>
-      <c r="AX35" s="21"/>
-      <c r="AY35" s="21"/>
-      <c r="AZ35" s="21"/>
-      <c r="BA35" s="21"/>
-      <c r="BC35" s="21" t="s">
-        <v>52</v>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="96" t="s">
+        <v>49</v>
       </c>
-      <c r="BD35" s="21"/>
-      <c r="BE35" s="21"/>
-      <c r="BF35" s="21"/>
-      <c r="BG35" s="21"/>
-      <c r="BH35" s="21"/>
-      <c r="BI35" s="21"/>
-      <c r="BJ35" s="21"/>
-      <c r="BK35" s="21"/>
-      <c r="BL35" s="21"/>
-      <c r="BM35" s="21"/>
-      <c r="BN35" s="21"/>
-      <c r="BO35" s="21"/>
-      <c r="BP35" s="21"/>
-      <c r="BQ35" s="21"/>
-      <c r="BR35" s="21"/>
-      <c r="BS35" s="21"/>
-      <c r="BT35" s="21"/>
-      <c r="BU35" s="21"/>
-      <c r="BV35" s="21"/>
-      <c r="BW35" s="21"/>
-      <c r="BX35" s="21"/>
-      <c r="BY35" s="21"/>
-      <c r="BZ35" s="21"/>
-      <c r="CA35" s="21"/>
-      <c r="CB35" s="21"/>
-      <c r="CC35" s="21"/>
-      <c r="CD35" s="21"/>
-      <c r="CE35" s="21"/>
-      <c r="CF35" s="21"/>
-      <c r="CG35" s="21"/>
-      <c r="CH35" s="21"/>
-      <c r="CI35" s="21"/>
-      <c r="CK35" s="21" t="s">
-        <v>53</v>
+      <c r="R35" s="96"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="96"/>
+      <c r="U35" s="96"/>
+      <c r="V35" s="96"/>
+      <c r="W35" s="96"/>
+      <c r="X35" s="96"/>
+      <c r="Y35" s="96"/>
+      <c r="Z35" s="96"/>
+      <c r="AA35" s="96"/>
+      <c r="AB35" s="96"/>
+      <c r="AC35" s="96"/>
+      <c r="AD35" s="96"/>
+      <c r="AE35" s="96"/>
+      <c r="AF35" s="96"/>
+      <c r="AG35" s="96"/>
+      <c r="AH35" s="96"/>
+      <c r="AI35" s="96"/>
+      <c r="AJ35" s="96"/>
+      <c r="AK35" s="96"/>
+      <c r="AL35" s="96"/>
+      <c r="AM35" s="96"/>
+      <c r="AN35" s="96"/>
+      <c r="AO35" s="96"/>
+      <c r="AP35" s="96"/>
+      <c r="AQ35" s="96"/>
+      <c r="AR35" s="96"/>
+      <c r="AS35" s="96"/>
+      <c r="AT35" s="96"/>
+      <c r="AU35" s="96"/>
+      <c r="AV35" s="96"/>
+      <c r="AW35" s="96"/>
+      <c r="AX35" s="96"/>
+      <c r="AY35" s="96"/>
+      <c r="AZ35" s="96"/>
+      <c r="BA35" s="96"/>
+      <c r="BC35" s="97"/>
+      <c r="BD35" s="97"/>
+      <c r="BE35" s="97"/>
+      <c r="BF35" s="97"/>
+      <c r="BG35" s="97"/>
+      <c r="BH35" s="97"/>
+      <c r="BI35" s="97"/>
+      <c r="BJ35" s="97"/>
+      <c r="BK35" s="97"/>
+      <c r="BL35" s="97"/>
+      <c r="BM35" s="97"/>
+      <c r="BN35" s="97"/>
+      <c r="BO35" s="97"/>
+      <c r="BP35" s="97"/>
+      <c r="BQ35" s="97"/>
+      <c r="BR35" s="97"/>
+      <c r="BS35" s="97"/>
+      <c r="BT35" s="97"/>
+      <c r="BU35" s="97"/>
+      <c r="BV35" s="97"/>
+      <c r="BW35" s="97"/>
+      <c r="BX35" s="97"/>
+      <c r="BY35" s="97"/>
+      <c r="BZ35" s="97"/>
+      <c r="CA35" s="97"/>
+      <c r="CB35" s="97"/>
+      <c r="CC35" s="97"/>
+      <c r="CD35" s="97"/>
+      <c r="CE35" s="97"/>
+      <c r="CF35" s="97"/>
+      <c r="CG35" s="97"/>
+      <c r="CH35" s="97"/>
+      <c r="CI35" s="97"/>
+      <c r="CK35" s="96" t="s">
+        <v>50</v>
       </c>
-      <c r="CL35" s="21"/>
-      <c r="CM35" s="21"/>
-      <c r="CN35" s="21"/>
-      <c r="CO35" s="21"/>
-      <c r="CP35" s="21"/>
-      <c r="CQ35" s="21"/>
-      <c r="CR35" s="21"/>
-      <c r="CS35" s="21"/>
-      <c r="CT35" s="21"/>
-      <c r="CU35" s="21"/>
-      <c r="CV35" s="21"/>
-      <c r="CW35" s="21"/>
-      <c r="CX35" s="21"/>
-      <c r="CY35" s="21"/>
-      <c r="CZ35" s="21"/>
-      <c r="DA35" s="21"/>
-      <c r="DB35" s="21"/>
-      <c r="DC35" s="21"/>
-      <c r="DD35" s="21"/>
-      <c r="DE35" s="21"/>
-      <c r="DF35" s="21"/>
-      <c r="DG35" s="21"/>
-      <c r="DH35" s="21"/>
-      <c r="DI35" s="21"/>
-      <c r="DJ35" s="21"/>
-      <c r="DK35" s="21"/>
-      <c r="DL35" s="21"/>
-      <c r="DM35" s="21"/>
-      <c r="DN35" s="21"/>
-      <c r="DO35" s="21"/>
-      <c r="DP35" s="21"/>
-      <c r="DQ35" s="21"/>
-      <c r="DR35" s="21"/>
-      <c r="DS35" s="21"/>
-      <c r="DT35" s="21"/>
-      <c r="DU35" s="21"/>
-      <c r="DV35" s="21"/>
-      <c r="DW35" s="21"/>
-      <c r="DX35" s="21"/>
-      <c r="DY35" s="21"/>
-      <c r="DZ35" s="21"/>
-      <c r="EA35" s="21"/>
-      <c r="EB35" s="21"/>
-      <c r="EC35" s="21"/>
-      <c r="ED35" s="21"/>
-      <c r="EE35" s="21"/>
-      <c r="EF35" s="21"/>
-      <c r="EG35" s="21"/>
-      <c r="EH35" s="21"/>
-      <c r="EI35" s="21"/>
-      <c r="EJ35" s="21"/>
-      <c r="EK35" s="21"/>
-      <c r="EL35" s="21"/>
-      <c r="EM35" s="21"/>
-      <c r="EN35" s="21"/>
-      <c r="EO35" s="21"/>
-      <c r="EP35" s="21"/>
-      <c r="EQ35" s="21"/>
-      <c r="ER35" s="21"/>
-      <c r="ES35" s="21"/>
-      <c r="ET35" s="21"/>
-      <c r="EU35" s="21"/>
-      <c r="EV35" s="21"/>
-      <c r="EW35" s="21"/>
-      <c r="EX35" s="21"/>
-      <c r="EY35" s="21"/>
-      <c r="EZ35" s="21"/>
-      <c r="FA35" s="21"/>
-      <c r="FB35" s="21"/>
-      <c r="FC35" s="21"/>
-      <c r="FD35" s="21"/>
-      <c r="FE35" s="21"/>
-      <c r="FF35" s="21"/>
-      <c r="FG35" s="21"/>
-      <c r="FH35" s="21"/>
-      <c r="FI35" s="21"/>
+      <c r="CL35" s="96"/>
+      <c r="CM35" s="96"/>
+      <c r="CN35" s="96"/>
+      <c r="CO35" s="96"/>
+      <c r="CP35" s="96"/>
+      <c r="CQ35" s="96"/>
+      <c r="CR35" s="96"/>
+      <c r="CS35" s="96"/>
+      <c r="CT35" s="96"/>
+      <c r="CU35" s="96"/>
+      <c r="CV35" s="96"/>
+      <c r="CW35" s="96"/>
+      <c r="CX35" s="96"/>
+      <c r="CY35" s="96"/>
+      <c r="CZ35" s="96"/>
+      <c r="DA35" s="96"/>
+      <c r="DB35" s="96"/>
+      <c r="DC35" s="96"/>
+      <c r="DD35" s="96"/>
+      <c r="DE35" s="96"/>
+      <c r="DF35" s="96"/>
+      <c r="DG35" s="96"/>
+      <c r="DH35" s="96"/>
+      <c r="DI35" s="96"/>
+      <c r="DJ35" s="96"/>
+      <c r="DK35" s="96"/>
+      <c r="DL35" s="96"/>
+      <c r="DM35" s="96"/>
+      <c r="DN35" s="96"/>
+      <c r="DO35" s="96"/>
+      <c r="DP35" s="96"/>
+      <c r="DQ35" s="96"/>
+      <c r="DR35" s="96"/>
+      <c r="DS35" s="96"/>
+      <c r="DT35" s="96"/>
+      <c r="DU35" s="96"/>
+      <c r="DV35" s="96"/>
+      <c r="DW35" s="96"/>
+      <c r="DX35" s="96"/>
+      <c r="DY35" s="96"/>
+      <c r="DZ35" s="96"/>
+      <c r="EA35" s="96"/>
+      <c r="EB35" s="96"/>
+      <c r="EC35" s="96"/>
+      <c r="ED35" s="96"/>
+      <c r="EE35" s="96"/>
+      <c r="EF35" s="96"/>
+      <c r="EG35" s="96"/>
+      <c r="EH35" s="96"/>
+      <c r="EI35" s="96"/>
+      <c r="EJ35" s="96"/>
+      <c r="EK35" s="96"/>
+      <c r="EL35" s="96"/>
+      <c r="EM35" s="96"/>
+      <c r="EN35" s="96"/>
+      <c r="EO35" s="96"/>
+      <c r="EP35" s="96"/>
+      <c r="EQ35" s="96"/>
+      <c r="ER35" s="96"/>
+      <c r="ES35" s="96"/>
+      <c r="ET35" s="96"/>
+      <c r="EU35" s="96"/>
+      <c r="EV35" s="96"/>
+      <c r="EW35" s="96"/>
+      <c r="EX35" s="96"/>
+      <c r="EY35" s="96"/>
+      <c r="EZ35" s="96"/>
+      <c r="FA35" s="96"/>
+      <c r="FB35" s="96"/>
+      <c r="FC35" s="96"/>
+      <c r="FD35" s="96"/>
+      <c r="FE35" s="96"/>
+      <c r="FF35" s="96"/>
+      <c r="FG35" s="96"/>
+      <c r="FH35" s="96"/>
+      <c r="FI35" s="96"/>
       <c r="FK35" s="57"/>
       <c r="FL35" s="57"/>
       <c r="FM35" s="57"/>
@@ -25802,20 +25808,20 @@
       <c r="ZJ35" s="57"/>
       <c r="ZK35" s="57"/>
       <c r="ZL35" s="57"/>
-      <c r="ZM35" s="57"/>
-      <c r="ZN35" s="57"/>
-      <c r="ZO35" s="57"/>
+      <c r="ZM35" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="ZN35" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="ZP35" s="57"/>
       <c r="ZQ35" s="57"/>
       <c r="ZR35" s="57"/>
       <c r="ZS35" s="57"/>
       <c r="ZT35" s="57"/>
       <c r="ZU35" s="57"/>
-      <c r="ZV35" s="57"/>
-      <c r="ZW35" s="57"/>
-      <c r="ZX35" s="57"/>
     </row>
-    <row r="36" spans="1:700" ht="14.25" customHeight="1">
+    <row r="36" spans="1:700" ht="6.75" customHeight="1">
       <c r="B36" s="57"/>
       <c r="C36" s="57"/>
       <c r="D36" s="57"/>
@@ -25831,157 +25837,159 @@
       <c r="N36" s="57"/>
       <c r="O36" s="57"/>
       <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="2" t="s">
-        <v>54</v>
+      <c r="Q36" s="21" t="s">
+        <v>51</v>
       </c>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AB36" s="57"/>
-      <c r="AC36" s="57"/>
-      <c r="AD36" s="57"/>
-      <c r="AE36" s="57"/>
-      <c r="AF36" s="57"/>
-      <c r="AG36" s="57"/>
-      <c r="AH36" s="57"/>
-      <c r="AI36" s="57"/>
-      <c r="AJ36" s="57"/>
-      <c r="AK36" s="57"/>
-      <c r="AL36" s="57"/>
-      <c r="AM36" s="57"/>
-      <c r="AN36" s="57"/>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="57"/>
-      <c r="AR36" s="57"/>
-      <c r="AS36" s="57"/>
-      <c r="AT36" s="57"/>
-      <c r="AU36" s="57"/>
-      <c r="AV36" s="57"/>
-      <c r="AW36" s="57"/>
-      <c r="AX36" s="57"/>
-      <c r="AY36" s="57"/>
-      <c r="AZ36" s="57"/>
-      <c r="BA36" s="57"/>
-      <c r="BB36" s="57"/>
-      <c r="BC36" s="57"/>
-      <c r="BD36" s="57"/>
-      <c r="BE36" s="57"/>
-      <c r="BF36" s="57"/>
-      <c r="BG36" s="57"/>
-      <c r="BH36" s="57"/>
-      <c r="BI36" s="57"/>
-      <c r="BJ36" s="57"/>
-      <c r="BK36" s="57"/>
-      <c r="BL36" s="57"/>
-      <c r="BM36" s="57"/>
-      <c r="BN36" s="57"/>
-      <c r="BO36" s="57"/>
-      <c r="BP36" s="57"/>
-      <c r="BQ36" s="57"/>
-      <c r="BR36" s="57"/>
-      <c r="BS36" s="57"/>
-      <c r="BT36" s="57"/>
-      <c r="BU36" s="57"/>
-      <c r="BV36" s="57"/>
-      <c r="BW36" s="57"/>
-      <c r="BX36" s="57"/>
-      <c r="BY36" s="57"/>
-      <c r="BZ36" s="57"/>
-      <c r="CA36" s="57"/>
-      <c r="CB36" s="57"/>
-      <c r="CC36" s="57"/>
-      <c r="CD36" s="57"/>
-      <c r="CE36" s="57"/>
-      <c r="CF36" s="57"/>
-      <c r="CG36" s="57"/>
-      <c r="CH36" s="57"/>
-      <c r="CI36" s="57"/>
-      <c r="CJ36" s="57"/>
-      <c r="CK36" s="57"/>
-      <c r="CL36" s="57"/>
-      <c r="CM36" s="57"/>
-      <c r="CN36" s="57"/>
-      <c r="CO36" s="57"/>
-      <c r="CP36" s="57"/>
-      <c r="CQ36" s="57"/>
-      <c r="CR36" s="57"/>
-      <c r="CS36" s="57"/>
-      <c r="CT36" s="57"/>
-      <c r="CU36" s="57"/>
-      <c r="CV36" s="57"/>
-      <c r="CW36" s="57"/>
-      <c r="CX36" s="57"/>
-      <c r="CY36" s="57"/>
-      <c r="CZ36" s="57"/>
-      <c r="DA36" s="57"/>
-      <c r="DB36" s="57"/>
-      <c r="DC36" s="57"/>
-      <c r="DD36" s="57"/>
-      <c r="DE36" s="57"/>
-      <c r="DF36" s="57"/>
-      <c r="DG36" s="57"/>
-      <c r="DH36" s="57"/>
-      <c r="DI36" s="57"/>
-      <c r="DJ36" s="57"/>
-      <c r="DK36" s="57"/>
-      <c r="DL36" s="57"/>
-      <c r="DM36" s="57"/>
-      <c r="DN36" s="57"/>
-      <c r="DO36" s="57"/>
-      <c r="DP36" s="57"/>
-      <c r="DQ36" s="57"/>
-      <c r="DR36" s="57"/>
-      <c r="DS36" s="57"/>
-      <c r="DT36" s="57"/>
-      <c r="DU36" s="57"/>
-      <c r="DV36" s="57"/>
-      <c r="DW36" s="57"/>
-      <c r="DX36" s="57"/>
-      <c r="DY36" s="57"/>
-      <c r="DZ36" s="57"/>
-      <c r="EA36" s="57"/>
-      <c r="EB36" s="57"/>
-      <c r="EC36" s="57"/>
-      <c r="ED36" s="57"/>
-      <c r="EE36" s="57"/>
-      <c r="EF36" s="57"/>
-      <c r="EG36" s="57"/>
-      <c r="EH36" s="57"/>
-      <c r="EI36" s="57"/>
-      <c r="EJ36" s="57"/>
-      <c r="EK36" s="57"/>
-      <c r="EL36" s="57"/>
-      <c r="EM36" s="57"/>
-      <c r="EN36" s="57"/>
-      <c r="EO36" s="57"/>
-      <c r="EP36" s="57"/>
-      <c r="EQ36" s="57"/>
-      <c r="ER36" s="57"/>
-      <c r="ES36" s="57"/>
-      <c r="ET36" s="57"/>
-      <c r="EU36" s="57"/>
-      <c r="EV36" s="57"/>
-      <c r="EW36" s="57"/>
-      <c r="EX36" s="57"/>
-      <c r="EY36" s="57"/>
-      <c r="EZ36" s="57"/>
-      <c r="FA36" s="57"/>
-      <c r="FB36" s="57"/>
-      <c r="FC36" s="57"/>
-      <c r="FD36" s="57"/>
-      <c r="FE36" s="57"/>
-      <c r="FF36" s="57"/>
-      <c r="FG36" s="57"/>
-      <c r="FH36" s="57"/>
-      <c r="FI36" s="57"/>
-      <c r="FJ36" s="57"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="21"/>
+      <c r="AE36" s="21"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="21"/>
+      <c r="AJ36" s="21"/>
+      <c r="AK36" s="21"/>
+      <c r="AL36" s="21"/>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="21"/>
+      <c r="AO36" s="21"/>
+      <c r="AP36" s="21"/>
+      <c r="AQ36" s="21"/>
+      <c r="AR36" s="21"/>
+      <c r="AS36" s="21"/>
+      <c r="AT36" s="21"/>
+      <c r="AU36" s="21"/>
+      <c r="AV36" s="21"/>
+      <c r="AW36" s="21"/>
+      <c r="AX36" s="21"/>
+      <c r="AY36" s="21"/>
+      <c r="AZ36" s="21"/>
+      <c r="BA36" s="21"/>
+      <c r="BC36" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD36" s="21"/>
+      <c r="BE36" s="21"/>
+      <c r="BF36" s="21"/>
+      <c r="BG36" s="21"/>
+      <c r="BH36" s="21"/>
+      <c r="BI36" s="21"/>
+      <c r="BJ36" s="21"/>
+      <c r="BK36" s="21"/>
+      <c r="BL36" s="21"/>
+      <c r="BM36" s="21"/>
+      <c r="BN36" s="21"/>
+      <c r="BO36" s="21"/>
+      <c r="BP36" s="21"/>
+      <c r="BQ36" s="21"/>
+      <c r="BR36" s="21"/>
+      <c r="BS36" s="21"/>
+      <c r="BT36" s="21"/>
+      <c r="BU36" s="21"/>
+      <c r="BV36" s="21"/>
+      <c r="BW36" s="21"/>
+      <c r="BX36" s="21"/>
+      <c r="BY36" s="21"/>
+      <c r="BZ36" s="21"/>
+      <c r="CA36" s="21"/>
+      <c r="CB36" s="21"/>
+      <c r="CC36" s="21"/>
+      <c r="CD36" s="21"/>
+      <c r="CE36" s="21"/>
+      <c r="CF36" s="21"/>
+      <c r="CG36" s="21"/>
+      <c r="CH36" s="21"/>
+      <c r="CI36" s="21"/>
+      <c r="CK36" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="CL36" s="21"/>
+      <c r="CM36" s="21"/>
+      <c r="CN36" s="21"/>
+      <c r="CO36" s="21"/>
+      <c r="CP36" s="21"/>
+      <c r="CQ36" s="21"/>
+      <c r="CR36" s="21"/>
+      <c r="CS36" s="21"/>
+      <c r="CT36" s="21"/>
+      <c r="CU36" s="21"/>
+      <c r="CV36" s="21"/>
+      <c r="CW36" s="21"/>
+      <c r="CX36" s="21"/>
+      <c r="CY36" s="21"/>
+      <c r="CZ36" s="21"/>
+      <c r="DA36" s="21"/>
+      <c r="DB36" s="21"/>
+      <c r="DC36" s="21"/>
+      <c r="DD36" s="21"/>
+      <c r="DE36" s="21"/>
+      <c r="DF36" s="21"/>
+      <c r="DG36" s="21"/>
+      <c r="DH36" s="21"/>
+      <c r="DI36" s="21"/>
+      <c r="DJ36" s="21"/>
+      <c r="DK36" s="21"/>
+      <c r="DL36" s="21"/>
+      <c r="DM36" s="21"/>
+      <c r="DN36" s="21"/>
+      <c r="DO36" s="21"/>
+      <c r="DP36" s="21"/>
+      <c r="DQ36" s="21"/>
+      <c r="DR36" s="21"/>
+      <c r="DS36" s="21"/>
+      <c r="DT36" s="21"/>
+      <c r="DU36" s="21"/>
+      <c r="DV36" s="21"/>
+      <c r="DW36" s="21"/>
+      <c r="DX36" s="21"/>
+      <c r="DY36" s="21"/>
+      <c r="DZ36" s="21"/>
+      <c r="EA36" s="21"/>
+      <c r="EB36" s="21"/>
+      <c r="EC36" s="21"/>
+      <c r="ED36" s="21"/>
+      <c r="EE36" s="21"/>
+      <c r="EF36" s="21"/>
+      <c r="EG36" s="21"/>
+      <c r="EH36" s="21"/>
+      <c r="EI36" s="21"/>
+      <c r="EJ36" s="21"/>
+      <c r="EK36" s="21"/>
+      <c r="EL36" s="21"/>
+      <c r="EM36" s="21"/>
+      <c r="EN36" s="21"/>
+      <c r="EO36" s="21"/>
+      <c r="EP36" s="21"/>
+      <c r="EQ36" s="21"/>
+      <c r="ER36" s="21"/>
+      <c r="ES36" s="21"/>
+      <c r="ET36" s="21"/>
+      <c r="EU36" s="21"/>
+      <c r="EV36" s="21"/>
+      <c r="EW36" s="21"/>
+      <c r="EX36" s="21"/>
+      <c r="EY36" s="21"/>
+      <c r="EZ36" s="21"/>
+      <c r="FA36" s="21"/>
+      <c r="FB36" s="21"/>
+      <c r="FC36" s="21"/>
+      <c r="FD36" s="21"/>
+      <c r="FE36" s="21"/>
+      <c r="FF36" s="21"/>
+      <c r="FG36" s="21"/>
+      <c r="FH36" s="21"/>
+      <c r="FI36" s="21"/>
       <c r="FK36" s="57"/>
       <c r="FL36" s="57"/>
       <c r="FM36" s="57"/>
@@ -26517,7 +26525,7 @@
       <c r="ZW36" s="57"/>
       <c r="ZX36" s="57"/>
     </row>
-    <row r="37" spans="1:700" ht="6.75" customHeight="1">
+    <row r="37" spans="1:700" ht="14.25" customHeight="1">
       <c r="B37" s="57"/>
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
@@ -26537,13 +26545,14 @@
       <c r="R37" s="57"/>
       <c r="S37" s="57"/>
       <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
-      <c r="X37" s="57"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="57"/>
+      <c r="U37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
       <c r="AB37" s="57"/>
       <c r="AC37" s="57"/>
       <c r="AD37" s="57"/>
@@ -27218,7 +27227,7 @@
       <c r="ZW37" s="57"/>
       <c r="ZX37" s="57"/>
     </row>
-    <row r="38" spans="1:700" ht="14.25" customHeight="1">
+    <row r="38" spans="1:700" ht="6.75" customHeight="1">
       <c r="B38" s="57"/>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
@@ -27226,167 +27235,164 @@
       <c r="F38" s="57"/>
       <c r="G38" s="57"/>
       <c r="H38" s="57"/>
-      <c r="I38" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="R38" s="96"/>
-      <c r="S38" s="96"/>
-      <c r="T38" s="96"/>
-      <c r="U38" s="96"/>
-      <c r="V38" s="96"/>
-      <c r="W38" s="96"/>
-      <c r="X38" s="96"/>
-      <c r="Y38" s="96"/>
-      <c r="Z38" s="96"/>
-      <c r="AA38" s="96"/>
-      <c r="AB38" s="96"/>
-      <c r="AC38" s="96"/>
-      <c r="AD38" s="96"/>
-      <c r="AE38" s="96"/>
-      <c r="AF38" s="96"/>
-      <c r="AG38" s="96"/>
-      <c r="AH38" s="96"/>
-      <c r="AI38" s="96"/>
-      <c r="AJ38" s="96"/>
-      <c r="AK38" s="96"/>
-      <c r="AL38" s="96"/>
-      <c r="AM38" s="96"/>
-      <c r="AN38" s="96"/>
-      <c r="AO38" s="96"/>
-      <c r="AP38" s="96"/>
-      <c r="AQ38" s="96"/>
-      <c r="AR38" s="96"/>
-      <c r="AS38" s="96"/>
-      <c r="AT38" s="96"/>
-      <c r="AU38" s="96"/>
-      <c r="AV38" s="96"/>
-      <c r="AW38" s="96"/>
-      <c r="AX38" s="96"/>
-      <c r="AY38" s="96"/>
-      <c r="AZ38" s="96"/>
-      <c r="BA38" s="96"/>
-      <c r="BC38" s="98"/>
-      <c r="BD38" s="98"/>
-      <c r="BE38" s="98"/>
-      <c r="BF38" s="98"/>
-      <c r="BG38" s="98"/>
-      <c r="BH38" s="98"/>
-      <c r="BI38" s="98"/>
-      <c r="BJ38" s="98"/>
-      <c r="BK38" s="98"/>
-      <c r="BL38" s="98"/>
-      <c r="BM38" s="98"/>
-      <c r="BN38" s="98"/>
-      <c r="BO38" s="98"/>
-      <c r="BP38" s="98"/>
-      <c r="BQ38" s="98"/>
-      <c r="BR38" s="98"/>
-      <c r="BS38" s="98"/>
-      <c r="BT38" s="98"/>
-      <c r="BU38" s="98"/>
-      <c r="BV38" s="98"/>
-      <c r="BW38" s="98"/>
-      <c r="BX38" s="98"/>
-      <c r="BY38" s="98"/>
-      <c r="BZ38" s="98"/>
-      <c r="CA38" s="98"/>
-      <c r="CB38" s="98"/>
-      <c r="CC38" s="98"/>
-      <c r="CD38" s="98"/>
-      <c r="CE38" s="98"/>
-      <c r="CF38" s="98"/>
-      <c r="CG38" s="98"/>
-      <c r="CH38" s="98"/>
-      <c r="CI38" s="98"/>
-      <c r="CK38" s="96" t="s">
-        <v>57</v>
-      </c>
-      <c r="CL38" s="96"/>
-      <c r="CM38" s="96"/>
-      <c r="CN38" s="96"/>
-      <c r="CO38" s="96"/>
-      <c r="CP38" s="96"/>
-      <c r="CQ38" s="96"/>
-      <c r="CR38" s="96"/>
-      <c r="CS38" s="96"/>
-      <c r="CT38" s="96"/>
-      <c r="CU38" s="96"/>
-      <c r="CV38" s="96"/>
-      <c r="CW38" s="96"/>
-      <c r="CX38" s="96"/>
-      <c r="CY38" s="96"/>
-      <c r="CZ38" s="96"/>
-      <c r="DA38" s="96"/>
-      <c r="DB38" s="96"/>
-      <c r="DC38" s="96"/>
-      <c r="DD38" s="96"/>
-      <c r="DE38" s="96"/>
-      <c r="DF38" s="96"/>
-      <c r="DG38" s="96"/>
-      <c r="DH38" s="96"/>
-      <c r="DI38" s="96"/>
-      <c r="DJ38" s="96"/>
-      <c r="DK38" s="96"/>
-      <c r="DL38" s="96"/>
-      <c r="DM38" s="96"/>
-      <c r="DN38" s="96"/>
-      <c r="DO38" s="96"/>
-      <c r="DP38" s="96"/>
-      <c r="DQ38" s="96"/>
-      <c r="DR38" s="96"/>
-      <c r="DS38" s="96"/>
-      <c r="DT38" s="96"/>
-      <c r="DU38" s="96"/>
-      <c r="DV38" s="96"/>
-      <c r="DW38" s="96"/>
-      <c r="DX38" s="96"/>
-      <c r="DY38" s="96"/>
-      <c r="DZ38" s="96"/>
-      <c r="EA38" s="96"/>
-      <c r="EB38" s="96"/>
-      <c r="EC38" s="96"/>
-      <c r="ED38" s="96"/>
-      <c r="EE38" s="96"/>
-      <c r="EF38" s="96"/>
-      <c r="EG38" s="96"/>
-      <c r="EH38" s="96"/>
-      <c r="EI38" s="96"/>
-      <c r="EJ38" s="96"/>
-      <c r="EK38" s="96"/>
-      <c r="EL38" s="96"/>
-      <c r="EM38" s="96"/>
-      <c r="EN38" s="96"/>
-      <c r="EO38" s="96"/>
-      <c r="EP38" s="96"/>
-      <c r="EQ38" s="96"/>
-      <c r="ER38" s="96"/>
-      <c r="ES38" s="96"/>
-      <c r="ET38" s="96"/>
-      <c r="EU38" s="96"/>
-      <c r="EV38" s="96"/>
-      <c r="EW38" s="96"/>
-      <c r="EX38" s="96"/>
-      <c r="EY38" s="96"/>
-      <c r="EZ38" s="96"/>
-      <c r="FA38" s="96"/>
-      <c r="FB38" s="96"/>
-      <c r="FC38" s="96"/>
-      <c r="FD38" s="96"/>
-      <c r="FE38" s="96"/>
-      <c r="FF38" s="96"/>
-      <c r="FG38" s="96"/>
-      <c r="FH38" s="96"/>
-      <c r="FI38" s="96"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="57"/>
+      <c r="AA38" s="57"/>
+      <c r="AB38" s="57"/>
+      <c r="AC38" s="57"/>
+      <c r="AD38" s="57"/>
+      <c r="AE38" s="57"/>
+      <c r="AF38" s="57"/>
+      <c r="AG38" s="57"/>
+      <c r="AH38" s="57"/>
+      <c r="AI38" s="57"/>
+      <c r="AJ38" s="57"/>
+      <c r="AK38" s="57"/>
+      <c r="AL38" s="57"/>
+      <c r="AM38" s="57"/>
+      <c r="AN38" s="57"/>
+      <c r="AO38" s="57"/>
+      <c r="AP38" s="57"/>
+      <c r="AQ38" s="57"/>
+      <c r="AR38" s="57"/>
+      <c r="AS38" s="57"/>
+      <c r="AT38" s="57"/>
+      <c r="AU38" s="57"/>
+      <c r="AV38" s="57"/>
+      <c r="AW38" s="57"/>
+      <c r="AX38" s="57"/>
+      <c r="AY38" s="57"/>
+      <c r="AZ38" s="57"/>
+      <c r="BA38" s="57"/>
+      <c r="BB38" s="57"/>
+      <c r="BC38" s="57"/>
+      <c r="BD38" s="57"/>
+      <c r="BE38" s="57"/>
+      <c r="BF38" s="57"/>
+      <c r="BG38" s="57"/>
+      <c r="BH38" s="57"/>
+      <c r="BI38" s="57"/>
+      <c r="BJ38" s="57"/>
+      <c r="BK38" s="57"/>
+      <c r="BL38" s="57"/>
+      <c r="BM38" s="57"/>
+      <c r="BN38" s="57"/>
+      <c r="BO38" s="57"/>
+      <c r="BP38" s="57"/>
+      <c r="BQ38" s="57"/>
+      <c r="BR38" s="57"/>
+      <c r="BS38" s="57"/>
+      <c r="BT38" s="57"/>
+      <c r="BU38" s="57"/>
+      <c r="BV38" s="57"/>
+      <c r="BW38" s="57"/>
+      <c r="BX38" s="57"/>
+      <c r="BY38" s="57"/>
+      <c r="BZ38" s="57"/>
+      <c r="CA38" s="57"/>
+      <c r="CB38" s="57"/>
+      <c r="CC38" s="57"/>
+      <c r="CD38" s="57"/>
+      <c r="CE38" s="57"/>
+      <c r="CF38" s="57"/>
+      <c r="CG38" s="57"/>
+      <c r="CH38" s="57"/>
+      <c r="CI38" s="57"/>
+      <c r="CJ38" s="57"/>
+      <c r="CK38" s="57"/>
+      <c r="CL38" s="57"/>
+      <c r="CM38" s="57"/>
+      <c r="CN38" s="57"/>
+      <c r="CO38" s="57"/>
+      <c r="CP38" s="57"/>
+      <c r="CQ38" s="57"/>
+      <c r="CR38" s="57"/>
+      <c r="CS38" s="57"/>
+      <c r="CT38" s="57"/>
+      <c r="CU38" s="57"/>
+      <c r="CV38" s="57"/>
+      <c r="CW38" s="57"/>
+      <c r="CX38" s="57"/>
+      <c r="CY38" s="57"/>
+      <c r="CZ38" s="57"/>
+      <c r="DA38" s="57"/>
+      <c r="DB38" s="57"/>
+      <c r="DC38" s="57"/>
+      <c r="DD38" s="57"/>
+      <c r="DE38" s="57"/>
+      <c r="DF38" s="57"/>
+      <c r="DG38" s="57"/>
+      <c r="DH38" s="57"/>
+      <c r="DI38" s="57"/>
+      <c r="DJ38" s="57"/>
+      <c r="DK38" s="57"/>
+      <c r="DL38" s="57"/>
+      <c r="DM38" s="57"/>
+      <c r="DN38" s="57"/>
+      <c r="DO38" s="57"/>
+      <c r="DP38" s="57"/>
+      <c r="DQ38" s="57"/>
+      <c r="DR38" s="57"/>
+      <c r="DS38" s="57"/>
+      <c r="DT38" s="57"/>
+      <c r="DU38" s="57"/>
+      <c r="DV38" s="57"/>
+      <c r="DW38" s="57"/>
+      <c r="DX38" s="57"/>
+      <c r="DY38" s="57"/>
+      <c r="DZ38" s="57"/>
+      <c r="EA38" s="57"/>
+      <c r="EB38" s="57"/>
+      <c r="EC38" s="57"/>
+      <c r="ED38" s="57"/>
+      <c r="EE38" s="57"/>
+      <c r="EF38" s="57"/>
+      <c r="EG38" s="57"/>
+      <c r="EH38" s="57"/>
+      <c r="EI38" s="57"/>
+      <c r="EJ38" s="57"/>
+      <c r="EK38" s="57"/>
+      <c r="EL38" s="57"/>
+      <c r="EM38" s="57"/>
+      <c r="EN38" s="57"/>
+      <c r="EO38" s="57"/>
+      <c r="EP38" s="57"/>
+      <c r="EQ38" s="57"/>
+      <c r="ER38" s="57"/>
+      <c r="ES38" s="57"/>
+      <c r="ET38" s="57"/>
+      <c r="EU38" s="57"/>
+      <c r="EV38" s="57"/>
+      <c r="EW38" s="57"/>
+      <c r="EX38" s="57"/>
+      <c r="EY38" s="57"/>
+      <c r="EZ38" s="57"/>
+      <c r="FA38" s="57"/>
+      <c r="FB38" s="57"/>
+      <c r="FC38" s="57"/>
+      <c r="FD38" s="57"/>
+      <c r="FE38" s="57"/>
+      <c r="FF38" s="57"/>
+      <c r="FG38" s="57"/>
+      <c r="FH38" s="57"/>
+      <c r="FI38" s="57"/>
+      <c r="FJ38" s="57"/>
       <c r="FK38" s="57"/>
       <c r="FL38" s="57"/>
       <c r="FM38" s="57"/>
@@ -27918,14 +27924,11 @@
       <c r="ZS38" s="57"/>
       <c r="ZT38" s="57"/>
       <c r="ZU38" s="57"/>
-      <c r="ZV38" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="ZX38" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="ZV38" s="57"/>
+      <c r="ZW38" s="57"/>
+      <c r="ZX38" s="57"/>
     </row>
-    <row r="39" spans="1:700" ht="6.75" customHeight="1">
+    <row r="39" spans="1:700" ht="14.25" customHeight="1">
       <c r="B39" s="57"/>
       <c r="C39" s="57"/>
       <c r="D39" s="57"/>
@@ -27933,167 +27936,167 @@
       <c r="F39" s="57"/>
       <c r="G39" s="57"/>
       <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="21" t="s">
-        <v>51</v>
+      <c r="I39" s="54" t="s">
+        <v>55</v>
       </c>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
-      <c r="AA39" s="21"/>
-      <c r="AB39" s="21"/>
-      <c r="AC39" s="21"/>
-      <c r="AD39" s="21"/>
-      <c r="AE39" s="21"/>
-      <c r="AF39" s="21"/>
-      <c r="AG39" s="21"/>
-      <c r="AH39" s="21"/>
-      <c r="AI39" s="21"/>
-      <c r="AJ39" s="21"/>
-      <c r="AK39" s="21"/>
-      <c r="AL39" s="21"/>
-      <c r="AM39" s="21"/>
-      <c r="AN39" s="21"/>
-      <c r="AO39" s="21"/>
-      <c r="AP39" s="21"/>
-      <c r="AQ39" s="21"/>
-      <c r="AR39" s="21"/>
-      <c r="AS39" s="21"/>
-      <c r="AT39" s="21"/>
-      <c r="AU39" s="21"/>
-      <c r="AV39" s="21"/>
-      <c r="AW39" s="21"/>
-      <c r="AX39" s="21"/>
-      <c r="AY39" s="21"/>
-      <c r="AZ39" s="21"/>
-      <c r="BA39" s="21"/>
-      <c r="BC39" s="21" t="s">
-        <v>52</v>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="96" t="s">
+        <v>56</v>
       </c>
-      <c r="BD39" s="21"/>
-      <c r="BE39" s="21"/>
-      <c r="BF39" s="21"/>
-      <c r="BG39" s="21"/>
-      <c r="BH39" s="21"/>
-      <c r="BI39" s="21"/>
-      <c r="BJ39" s="21"/>
-      <c r="BK39" s="21"/>
-      <c r="BL39" s="21"/>
-      <c r="BM39" s="21"/>
-      <c r="BN39" s="21"/>
-      <c r="BO39" s="21"/>
-      <c r="BP39" s="21"/>
-      <c r="BQ39" s="21"/>
-      <c r="BR39" s="21"/>
-      <c r="BS39" s="21"/>
-      <c r="BT39" s="21"/>
-      <c r="BU39" s="21"/>
-      <c r="BV39" s="21"/>
-      <c r="BW39" s="21"/>
-      <c r="BX39" s="21"/>
-      <c r="BY39" s="21"/>
-      <c r="BZ39" s="21"/>
-      <c r="CA39" s="21"/>
-      <c r="CB39" s="21"/>
-      <c r="CC39" s="21"/>
-      <c r="CD39" s="21"/>
-      <c r="CE39" s="21"/>
-      <c r="CF39" s="21"/>
-      <c r="CG39" s="21"/>
-      <c r="CH39" s="21"/>
-      <c r="CI39" s="21"/>
-      <c r="CK39" s="21" t="s">
-        <v>53</v>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="96"/>
+      <c r="V39" s="96"/>
+      <c r="W39" s="96"/>
+      <c r="X39" s="96"/>
+      <c r="Y39" s="96"/>
+      <c r="Z39" s="96"/>
+      <c r="AA39" s="96"/>
+      <c r="AB39" s="96"/>
+      <c r="AC39" s="96"/>
+      <c r="AD39" s="96"/>
+      <c r="AE39" s="96"/>
+      <c r="AF39" s="96"/>
+      <c r="AG39" s="96"/>
+      <c r="AH39" s="96"/>
+      <c r="AI39" s="96"/>
+      <c r="AJ39" s="96"/>
+      <c r="AK39" s="96"/>
+      <c r="AL39" s="96"/>
+      <c r="AM39" s="96"/>
+      <c r="AN39" s="96"/>
+      <c r="AO39" s="96"/>
+      <c r="AP39" s="96"/>
+      <c r="AQ39" s="96"/>
+      <c r="AR39" s="96"/>
+      <c r="AS39" s="96"/>
+      <c r="AT39" s="96"/>
+      <c r="AU39" s="96"/>
+      <c r="AV39" s="96"/>
+      <c r="AW39" s="96"/>
+      <c r="AX39" s="96"/>
+      <c r="AY39" s="96"/>
+      <c r="AZ39" s="96"/>
+      <c r="BA39" s="96"/>
+      <c r="BC39" s="98"/>
+      <c r="BD39" s="98"/>
+      <c r="BE39" s="98"/>
+      <c r="BF39" s="98"/>
+      <c r="BG39" s="98"/>
+      <c r="BH39" s="98"/>
+      <c r="BI39" s="98"/>
+      <c r="BJ39" s="98"/>
+      <c r="BK39" s="98"/>
+      <c r="BL39" s="98"/>
+      <c r="BM39" s="98"/>
+      <c r="BN39" s="98"/>
+      <c r="BO39" s="98"/>
+      <c r="BP39" s="98"/>
+      <c r="BQ39" s="98"/>
+      <c r="BR39" s="98"/>
+      <c r="BS39" s="98"/>
+      <c r="BT39" s="98"/>
+      <c r="BU39" s="98"/>
+      <c r="BV39" s="98"/>
+      <c r="BW39" s="98"/>
+      <c r="BX39" s="98"/>
+      <c r="BY39" s="98"/>
+      <c r="BZ39" s="98"/>
+      <c r="CA39" s="98"/>
+      <c r="CB39" s="98"/>
+      <c r="CC39" s="98"/>
+      <c r="CD39" s="98"/>
+      <c r="CE39" s="98"/>
+      <c r="CF39" s="98"/>
+      <c r="CG39" s="98"/>
+      <c r="CH39" s="98"/>
+      <c r="CI39" s="98"/>
+      <c r="CK39" s="96" t="s">
+        <v>57</v>
       </c>
-      <c r="CL39" s="21"/>
-      <c r="CM39" s="21"/>
-      <c r="CN39" s="21"/>
-      <c r="CO39" s="21"/>
-      <c r="CP39" s="21"/>
-      <c r="CQ39" s="21"/>
-      <c r="CR39" s="21"/>
-      <c r="CS39" s="21"/>
-      <c r="CT39" s="21"/>
-      <c r="CU39" s="21"/>
-      <c r="CV39" s="21"/>
-      <c r="CW39" s="21"/>
-      <c r="CX39" s="21"/>
-      <c r="CY39" s="21"/>
-      <c r="CZ39" s="21"/>
-      <c r="DA39" s="21"/>
-      <c r="DB39" s="21"/>
-      <c r="DC39" s="21"/>
-      <c r="DD39" s="21"/>
-      <c r="DE39" s="21"/>
-      <c r="DF39" s="21"/>
-      <c r="DG39" s="21"/>
-      <c r="DH39" s="21"/>
-      <c r="DI39" s="21"/>
-      <c r="DJ39" s="21"/>
-      <c r="DK39" s="21"/>
-      <c r="DL39" s="21"/>
-      <c r="DM39" s="21"/>
-      <c r="DN39" s="21"/>
-      <c r="DO39" s="21"/>
-      <c r="DP39" s="21"/>
-      <c r="DQ39" s="21"/>
-      <c r="DR39" s="21"/>
-      <c r="DS39" s="21"/>
-      <c r="DT39" s="21"/>
-      <c r="DU39" s="21"/>
-      <c r="DV39" s="21"/>
-      <c r="DW39" s="21"/>
-      <c r="DX39" s="21"/>
-      <c r="DY39" s="21"/>
-      <c r="DZ39" s="21"/>
-      <c r="EA39" s="21"/>
-      <c r="EB39" s="21"/>
-      <c r="EC39" s="21"/>
-      <c r="ED39" s="21"/>
-      <c r="EE39" s="21"/>
-      <c r="EF39" s="21"/>
-      <c r="EG39" s="21"/>
-      <c r="EH39" s="21"/>
-      <c r="EI39" s="21"/>
-      <c r="EJ39" s="21"/>
-      <c r="EK39" s="21"/>
-      <c r="EL39" s="21"/>
-      <c r="EM39" s="21"/>
-      <c r="EN39" s="21"/>
-      <c r="EO39" s="21"/>
-      <c r="EP39" s="21"/>
-      <c r="EQ39" s="21"/>
-      <c r="ER39" s="21"/>
-      <c r="ES39" s="21"/>
-      <c r="ET39" s="21"/>
-      <c r="EU39" s="21"/>
-      <c r="EV39" s="21"/>
-      <c r="EW39" s="21"/>
-      <c r="EX39" s="21"/>
-      <c r="EY39" s="21"/>
-      <c r="EZ39" s="21"/>
-      <c r="FA39" s="21"/>
-      <c r="FB39" s="21"/>
-      <c r="FC39" s="21"/>
-      <c r="FD39" s="21"/>
-      <c r="FE39" s="21"/>
-      <c r="FF39" s="21"/>
-      <c r="FG39" s="21"/>
-      <c r="FH39" s="21"/>
-      <c r="FI39" s="21"/>
+      <c r="CL39" s="96"/>
+      <c r="CM39" s="96"/>
+      <c r="CN39" s="96"/>
+      <c r="CO39" s="96"/>
+      <c r="CP39" s="96"/>
+      <c r="CQ39" s="96"/>
+      <c r="CR39" s="96"/>
+      <c r="CS39" s="96"/>
+      <c r="CT39" s="96"/>
+      <c r="CU39" s="96"/>
+      <c r="CV39" s="96"/>
+      <c r="CW39" s="96"/>
+      <c r="CX39" s="96"/>
+      <c r="CY39" s="96"/>
+      <c r="CZ39" s="96"/>
+      <c r="DA39" s="96"/>
+      <c r="DB39" s="96"/>
+      <c r="DC39" s="96"/>
+      <c r="DD39" s="96"/>
+      <c r="DE39" s="96"/>
+      <c r="DF39" s="96"/>
+      <c r="DG39" s="96"/>
+      <c r="DH39" s="96"/>
+      <c r="DI39" s="96"/>
+      <c r="DJ39" s="96"/>
+      <c r="DK39" s="96"/>
+      <c r="DL39" s="96"/>
+      <c r="DM39" s="96"/>
+      <c r="DN39" s="96"/>
+      <c r="DO39" s="96"/>
+      <c r="DP39" s="96"/>
+      <c r="DQ39" s="96"/>
+      <c r="DR39" s="96"/>
+      <c r="DS39" s="96"/>
+      <c r="DT39" s="96"/>
+      <c r="DU39" s="96"/>
+      <c r="DV39" s="96"/>
+      <c r="DW39" s="96"/>
+      <c r="DX39" s="96"/>
+      <c r="DY39" s="96"/>
+      <c r="DZ39" s="96"/>
+      <c r="EA39" s="96"/>
+      <c r="EB39" s="96"/>
+      <c r="EC39" s="96"/>
+      <c r="ED39" s="96"/>
+      <c r="EE39" s="96"/>
+      <c r="EF39" s="96"/>
+      <c r="EG39" s="96"/>
+      <c r="EH39" s="96"/>
+      <c r="EI39" s="96"/>
+      <c r="EJ39" s="96"/>
+      <c r="EK39" s="96"/>
+      <c r="EL39" s="96"/>
+      <c r="EM39" s="96"/>
+      <c r="EN39" s="96"/>
+      <c r="EO39" s="96"/>
+      <c r="EP39" s="96"/>
+      <c r="EQ39" s="96"/>
+      <c r="ER39" s="96"/>
+      <c r="ES39" s="96"/>
+      <c r="ET39" s="96"/>
+      <c r="EU39" s="96"/>
+      <c r="EV39" s="96"/>
+      <c r="EW39" s="96"/>
+      <c r="EX39" s="96"/>
+      <c r="EY39" s="96"/>
+      <c r="EZ39" s="96"/>
+      <c r="FA39" s="96"/>
+      <c r="FB39" s="96"/>
+      <c r="FC39" s="96"/>
+      <c r="FD39" s="96"/>
+      <c r="FE39" s="96"/>
+      <c r="FF39" s="96"/>
+      <c r="FG39" s="96"/>
+      <c r="FH39" s="96"/>
+      <c r="FI39" s="96"/>
       <c r="FK39" s="57"/>
       <c r="FL39" s="57"/>
       <c r="FM39" s="57"/>
@@ -28625,11 +28628,14 @@
       <c r="ZS39" s="57"/>
       <c r="ZT39" s="57"/>
       <c r="ZU39" s="57"/>
-      <c r="ZV39" s="57"/>
-      <c r="ZW39" s="57"/>
-      <c r="ZX39" s="57"/>
+      <c r="ZV39" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="ZX39" s="12" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="40" spans="1:700" ht="14.25" customHeight="1">
+    <row r="40" spans="1:700" ht="6.75" customHeight="1">
       <c r="B40" s="57"/>
       <c r="C40" s="57"/>
       <c r="D40" s="57"/>
@@ -28645,157 +28651,159 @@
       <c r="N40" s="57"/>
       <c r="O40" s="57"/>
       <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="2" t="s">
-        <v>54</v>
+      <c r="Q40" s="21" t="s">
+        <v>51</v>
       </c>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AB40" s="57"/>
-      <c r="AC40" s="57"/>
-      <c r="AD40" s="57"/>
-      <c r="AE40" s="57"/>
-      <c r="AF40" s="57"/>
-      <c r="AG40" s="57"/>
-      <c r="AH40" s="57"/>
-      <c r="AI40" s="57"/>
-      <c r="AJ40" s="57"/>
-      <c r="AK40" s="57"/>
-      <c r="AL40" s="57"/>
-      <c r="AM40" s="57"/>
-      <c r="AN40" s="57"/>
-      <c r="AO40" s="57"/>
-      <c r="AP40" s="57"/>
-      <c r="AQ40" s="57"/>
-      <c r="AR40" s="57"/>
-      <c r="AS40" s="57"/>
-      <c r="AT40" s="57"/>
-      <c r="AU40" s="57"/>
-      <c r="AV40" s="57"/>
-      <c r="AW40" s="57"/>
-      <c r="AX40" s="57"/>
-      <c r="AY40" s="57"/>
-      <c r="AZ40" s="57"/>
-      <c r="BA40" s="57"/>
-      <c r="BB40" s="57"/>
-      <c r="BC40" s="57"/>
-      <c r="BD40" s="57"/>
-      <c r="BE40" s="57"/>
-      <c r="BF40" s="57"/>
-      <c r="BG40" s="57"/>
-      <c r="BH40" s="57"/>
-      <c r="BI40" s="57"/>
-      <c r="BJ40" s="57"/>
-      <c r="BK40" s="57"/>
-      <c r="BL40" s="57"/>
-      <c r="BM40" s="57"/>
-      <c r="BN40" s="57"/>
-      <c r="BO40" s="57"/>
-      <c r="BP40" s="57"/>
-      <c r="BQ40" s="57"/>
-      <c r="BR40" s="57"/>
-      <c r="BS40" s="57"/>
-      <c r="BT40" s="57"/>
-      <c r="BU40" s="57"/>
-      <c r="BV40" s="57"/>
-      <c r="BW40" s="57"/>
-      <c r="BX40" s="57"/>
-      <c r="BY40" s="57"/>
-      <c r="BZ40" s="57"/>
-      <c r="CA40" s="57"/>
-      <c r="CB40" s="57"/>
-      <c r="CC40" s="57"/>
-      <c r="CD40" s="57"/>
-      <c r="CE40" s="57"/>
-      <c r="CF40" s="57"/>
-      <c r="CG40" s="57"/>
-      <c r="CH40" s="57"/>
-      <c r="CI40" s="57"/>
-      <c r="CJ40" s="57"/>
-      <c r="CK40" s="57"/>
-      <c r="CL40" s="57"/>
-      <c r="CM40" s="57"/>
-      <c r="CN40" s="57"/>
-      <c r="CO40" s="57"/>
-      <c r="CP40" s="57"/>
-      <c r="CQ40" s="57"/>
-      <c r="CR40" s="57"/>
-      <c r="CS40" s="57"/>
-      <c r="CT40" s="57"/>
-      <c r="CU40" s="57"/>
-      <c r="CV40" s="57"/>
-      <c r="CW40" s="57"/>
-      <c r="CX40" s="57"/>
-      <c r="CY40" s="57"/>
-      <c r="CZ40" s="57"/>
-      <c r="DA40" s="57"/>
-      <c r="DB40" s="57"/>
-      <c r="DC40" s="57"/>
-      <c r="DD40" s="57"/>
-      <c r="DE40" s="57"/>
-      <c r="DF40" s="57"/>
-      <c r="DG40" s="57"/>
-      <c r="DH40" s="57"/>
-      <c r="DI40" s="57"/>
-      <c r="DJ40" s="57"/>
-      <c r="DK40" s="57"/>
-      <c r="DL40" s="57"/>
-      <c r="DM40" s="57"/>
-      <c r="DN40" s="57"/>
-      <c r="DO40" s="57"/>
-      <c r="DP40" s="57"/>
-      <c r="DQ40" s="57"/>
-      <c r="DR40" s="57"/>
-      <c r="DS40" s="57"/>
-      <c r="DT40" s="57"/>
-      <c r="DU40" s="57"/>
-      <c r="DV40" s="57"/>
-      <c r="DW40" s="57"/>
-      <c r="DX40" s="57"/>
-      <c r="DY40" s="57"/>
-      <c r="DZ40" s="57"/>
-      <c r="EA40" s="57"/>
-      <c r="EB40" s="57"/>
-      <c r="EC40" s="57"/>
-      <c r="ED40" s="57"/>
-      <c r="EE40" s="57"/>
-      <c r="EF40" s="57"/>
-      <c r="EG40" s="57"/>
-      <c r="EH40" s="57"/>
-      <c r="EI40" s="57"/>
-      <c r="EJ40" s="57"/>
-      <c r="EK40" s="57"/>
-      <c r="EL40" s="57"/>
-      <c r="EM40" s="57"/>
-      <c r="EN40" s="57"/>
-      <c r="EO40" s="57"/>
-      <c r="EP40" s="57"/>
-      <c r="EQ40" s="57"/>
-      <c r="ER40" s="57"/>
-      <c r="ES40" s="57"/>
-      <c r="ET40" s="57"/>
-      <c r="EU40" s="57"/>
-      <c r="EV40" s="57"/>
-      <c r="EW40" s="57"/>
-      <c r="EX40" s="57"/>
-      <c r="EY40" s="57"/>
-      <c r="EZ40" s="57"/>
-      <c r="FA40" s="57"/>
-      <c r="FB40" s="57"/>
-      <c r="FC40" s="57"/>
-      <c r="FD40" s="57"/>
-      <c r="FE40" s="57"/>
-      <c r="FF40" s="57"/>
-      <c r="FG40" s="57"/>
-      <c r="FH40" s="57"/>
-      <c r="FI40" s="57"/>
-      <c r="FJ40" s="57"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="21"/>
+      <c r="AF40" s="21"/>
+      <c r="AG40" s="21"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="21"/>
+      <c r="AJ40" s="21"/>
+      <c r="AK40" s="21"/>
+      <c r="AL40" s="21"/>
+      <c r="AM40" s="21"/>
+      <c r="AN40" s="21"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="21"/>
+      <c r="AQ40" s="21"/>
+      <c r="AR40" s="21"/>
+      <c r="AS40" s="21"/>
+      <c r="AT40" s="21"/>
+      <c r="AU40" s="21"/>
+      <c r="AV40" s="21"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="21"/>
+      <c r="AY40" s="21"/>
+      <c r="AZ40" s="21"/>
+      <c r="BA40" s="21"/>
+      <c r="BC40" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD40" s="21"/>
+      <c r="BE40" s="21"/>
+      <c r="BF40" s="21"/>
+      <c r="BG40" s="21"/>
+      <c r="BH40" s="21"/>
+      <c r="BI40" s="21"/>
+      <c r="BJ40" s="21"/>
+      <c r="BK40" s="21"/>
+      <c r="BL40" s="21"/>
+      <c r="BM40" s="21"/>
+      <c r="BN40" s="21"/>
+      <c r="BO40" s="21"/>
+      <c r="BP40" s="21"/>
+      <c r="BQ40" s="21"/>
+      <c r="BR40" s="21"/>
+      <c r="BS40" s="21"/>
+      <c r="BT40" s="21"/>
+      <c r="BU40" s="21"/>
+      <c r="BV40" s="21"/>
+      <c r="BW40" s="21"/>
+      <c r="BX40" s="21"/>
+      <c r="BY40" s="21"/>
+      <c r="BZ40" s="21"/>
+      <c r="CA40" s="21"/>
+      <c r="CB40" s="21"/>
+      <c r="CC40" s="21"/>
+      <c r="CD40" s="21"/>
+      <c r="CE40" s="21"/>
+      <c r="CF40" s="21"/>
+      <c r="CG40" s="21"/>
+      <c r="CH40" s="21"/>
+      <c r="CI40" s="21"/>
+      <c r="CK40" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="CL40" s="21"/>
+      <c r="CM40" s="21"/>
+      <c r="CN40" s="21"/>
+      <c r="CO40" s="21"/>
+      <c r="CP40" s="21"/>
+      <c r="CQ40" s="21"/>
+      <c r="CR40" s="21"/>
+      <c r="CS40" s="21"/>
+      <c r="CT40" s="21"/>
+      <c r="CU40" s="21"/>
+      <c r="CV40" s="21"/>
+      <c r="CW40" s="21"/>
+      <c r="CX40" s="21"/>
+      <c r="CY40" s="21"/>
+      <c r="CZ40" s="21"/>
+      <c r="DA40" s="21"/>
+      <c r="DB40" s="21"/>
+      <c r="DC40" s="21"/>
+      <c r="DD40" s="21"/>
+      <c r="DE40" s="21"/>
+      <c r="DF40" s="21"/>
+      <c r="DG40" s="21"/>
+      <c r="DH40" s="21"/>
+      <c r="DI40" s="21"/>
+      <c r="DJ40" s="21"/>
+      <c r="DK40" s="21"/>
+      <c r="DL40" s="21"/>
+      <c r="DM40" s="21"/>
+      <c r="DN40" s="21"/>
+      <c r="DO40" s="21"/>
+      <c r="DP40" s="21"/>
+      <c r="DQ40" s="21"/>
+      <c r="DR40" s="21"/>
+      <c r="DS40" s="21"/>
+      <c r="DT40" s="21"/>
+      <c r="DU40" s="21"/>
+      <c r="DV40" s="21"/>
+      <c r="DW40" s="21"/>
+      <c r="DX40" s="21"/>
+      <c r="DY40" s="21"/>
+      <c r="DZ40" s="21"/>
+      <c r="EA40" s="21"/>
+      <c r="EB40" s="21"/>
+      <c r="EC40" s="21"/>
+      <c r="ED40" s="21"/>
+      <c r="EE40" s="21"/>
+      <c r="EF40" s="21"/>
+      <c r="EG40" s="21"/>
+      <c r="EH40" s="21"/>
+      <c r="EI40" s="21"/>
+      <c r="EJ40" s="21"/>
+      <c r="EK40" s="21"/>
+      <c r="EL40" s="21"/>
+      <c r="EM40" s="21"/>
+      <c r="EN40" s="21"/>
+      <c r="EO40" s="21"/>
+      <c r="EP40" s="21"/>
+      <c r="EQ40" s="21"/>
+      <c r="ER40" s="21"/>
+      <c r="ES40" s="21"/>
+      <c r="ET40" s="21"/>
+      <c r="EU40" s="21"/>
+      <c r="EV40" s="21"/>
+      <c r="EW40" s="21"/>
+      <c r="EX40" s="21"/>
+      <c r="EY40" s="21"/>
+      <c r="EZ40" s="21"/>
+      <c r="FA40" s="21"/>
+      <c r="FB40" s="21"/>
+      <c r="FC40" s="21"/>
+      <c r="FD40" s="21"/>
+      <c r="FE40" s="21"/>
+      <c r="FF40" s="21"/>
+      <c r="FG40" s="21"/>
+      <c r="FH40" s="21"/>
+      <c r="FI40" s="21"/>
       <c r="FK40" s="57"/>
       <c r="FL40" s="57"/>
       <c r="FM40" s="57"/>
@@ -29331,7 +29339,7 @@
       <c r="ZW40" s="57"/>
       <c r="ZX40" s="57"/>
     </row>
-    <row r="41" spans="1:700" ht="11.25" hidden="1">
+    <row r="41" spans="1:700" ht="14.25" customHeight="1">
       <c r="B41" s="57"/>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
@@ -29351,13 +29359,14 @@
       <c r="R41" s="57"/>
       <c r="S41" s="57"/>
       <c r="T41" s="57"/>
-      <c r="U41" s="57"/>
-      <c r="V41" s="57"/>
-      <c r="W41" s="57"/>
-      <c r="X41" s="57"/>
-      <c r="Y41" s="57"/>
-      <c r="Z41" s="57"/>
-      <c r="AA41" s="57"/>
+      <c r="U41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
       <c r="AB41" s="57"/>
       <c r="AC41" s="57"/>
       <c r="AD41" s="57"/>
@@ -29496,6 +29505,7 @@
       <c r="FG41" s="57"/>
       <c r="FH41" s="57"/>
       <c r="FI41" s="57"/>
+      <c r="FJ41" s="57"/>
       <c r="FK41" s="57"/>
       <c r="FL41" s="57"/>
       <c r="FM41" s="57"/>
@@ -30006,24 +30016,724 @@
       <c r="YX41" s="57"/>
       <c r="YY41" s="57"/>
       <c r="YZ41" s="57"/>
+      <c r="ZA41" s="57"/>
       <c r="ZB41" s="57"/>
       <c r="ZC41" s="57"/>
       <c r="ZD41" s="57"/>
       <c r="ZE41" s="57"/>
       <c r="ZF41" s="57"/>
       <c r="ZG41" s="57"/>
+      <c r="ZH41" s="57"/>
+      <c r="ZI41" s="57"/>
+      <c r="ZJ41" s="57"/>
+      <c r="ZK41" s="57"/>
       <c r="ZL41" s="57"/>
       <c r="ZM41" s="57"/>
       <c r="ZN41" s="57"/>
+      <c r="ZO41" s="57"/>
       <c r="ZP41" s="57"/>
       <c r="ZQ41" s="57"/>
       <c r="ZR41" s="57"/>
       <c r="ZS41" s="57"/>
       <c r="ZT41" s="57"/>
       <c r="ZU41" s="57"/>
+      <c r="ZV41" s="57"/>
+      <c r="ZW41" s="57"/>
+      <c r="ZX41" s="57"/>
+    </row>
+    <row r="42" spans="1:700" ht="11.25" hidden="1">
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="57"/>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="57"/>
+      <c r="AA42" s="57"/>
+      <c r="AB42" s="57"/>
+      <c r="AC42" s="57"/>
+      <c r="AD42" s="57"/>
+      <c r="AE42" s="57"/>
+      <c r="AF42" s="57"/>
+      <c r="AG42" s="57"/>
+      <c r="AH42" s="57"/>
+      <c r="AI42" s="57"/>
+      <c r="AJ42" s="57"/>
+      <c r="AK42" s="57"/>
+      <c r="AL42" s="57"/>
+      <c r="AM42" s="57"/>
+      <c r="AN42" s="57"/>
+      <c r="AO42" s="57"/>
+      <c r="AP42" s="57"/>
+      <c r="AQ42" s="57"/>
+      <c r="AR42" s="57"/>
+      <c r="AS42" s="57"/>
+      <c r="AT42" s="57"/>
+      <c r="AU42" s="57"/>
+      <c r="AV42" s="57"/>
+      <c r="AW42" s="57"/>
+      <c r="AX42" s="57"/>
+      <c r="AY42" s="57"/>
+      <c r="AZ42" s="57"/>
+      <c r="BA42" s="57"/>
+      <c r="BB42" s="57"/>
+      <c r="BC42" s="57"/>
+      <c r="BD42" s="57"/>
+      <c r="BE42" s="57"/>
+      <c r="BF42" s="57"/>
+      <c r="BG42" s="57"/>
+      <c r="BH42" s="57"/>
+      <c r="BI42" s="57"/>
+      <c r="BJ42" s="57"/>
+      <c r="BK42" s="57"/>
+      <c r="BL42" s="57"/>
+      <c r="BM42" s="57"/>
+      <c r="BN42" s="57"/>
+      <c r="BO42" s="57"/>
+      <c r="BP42" s="57"/>
+      <c r="BQ42" s="57"/>
+      <c r="BR42" s="57"/>
+      <c r="BS42" s="57"/>
+      <c r="BT42" s="57"/>
+      <c r="BU42" s="57"/>
+      <c r="BV42" s="57"/>
+      <c r="BW42" s="57"/>
+      <c r="BX42" s="57"/>
+      <c r="BY42" s="57"/>
+      <c r="BZ42" s="57"/>
+      <c r="CA42" s="57"/>
+      <c r="CB42" s="57"/>
+      <c r="CC42" s="57"/>
+      <c r="CD42" s="57"/>
+      <c r="CE42" s="57"/>
+      <c r="CF42" s="57"/>
+      <c r="CG42" s="57"/>
+      <c r="CH42" s="57"/>
+      <c r="CI42" s="57"/>
+      <c r="CJ42" s="57"/>
+      <c r="CK42" s="57"/>
+      <c r="CL42" s="57"/>
+      <c r="CM42" s="57"/>
+      <c r="CN42" s="57"/>
+      <c r="CO42" s="57"/>
+      <c r="CP42" s="57"/>
+      <c r="CQ42" s="57"/>
+      <c r="CR42" s="57"/>
+      <c r="CS42" s="57"/>
+      <c r="CT42" s="57"/>
+      <c r="CU42" s="57"/>
+      <c r="CV42" s="57"/>
+      <c r="CW42" s="57"/>
+      <c r="CX42" s="57"/>
+      <c r="CY42" s="57"/>
+      <c r="CZ42" s="57"/>
+      <c r="DA42" s="57"/>
+      <c r="DB42" s="57"/>
+      <c r="DC42" s="57"/>
+      <c r="DD42" s="57"/>
+      <c r="DE42" s="57"/>
+      <c r="DF42" s="57"/>
+      <c r="DG42" s="57"/>
+      <c r="DH42" s="57"/>
+      <c r="DI42" s="57"/>
+      <c r="DJ42" s="57"/>
+      <c r="DK42" s="57"/>
+      <c r="DL42" s="57"/>
+      <c r="DM42" s="57"/>
+      <c r="DN42" s="57"/>
+      <c r="DO42" s="57"/>
+      <c r="DP42" s="57"/>
+      <c r="DQ42" s="57"/>
+      <c r="DR42" s="57"/>
+      <c r="DS42" s="57"/>
+      <c r="DT42" s="57"/>
+      <c r="DU42" s="57"/>
+      <c r="DV42" s="57"/>
+      <c r="DW42" s="57"/>
+      <c r="DX42" s="57"/>
+      <c r="DY42" s="57"/>
+      <c r="DZ42" s="57"/>
+      <c r="EA42" s="57"/>
+      <c r="EB42" s="57"/>
+      <c r="EC42" s="57"/>
+      <c r="ED42" s="57"/>
+      <c r="EE42" s="57"/>
+      <c r="EF42" s="57"/>
+      <c r="EG42" s="57"/>
+      <c r="EH42" s="57"/>
+      <c r="EI42" s="57"/>
+      <c r="EJ42" s="57"/>
+      <c r="EK42" s="57"/>
+      <c r="EL42" s="57"/>
+      <c r="EM42" s="57"/>
+      <c r="EN42" s="57"/>
+      <c r="EO42" s="57"/>
+      <c r="EP42" s="57"/>
+      <c r="EQ42" s="57"/>
+      <c r="ER42" s="57"/>
+      <c r="ES42" s="57"/>
+      <c r="ET42" s="57"/>
+      <c r="EU42" s="57"/>
+      <c r="EV42" s="57"/>
+      <c r="EW42" s="57"/>
+      <c r="EX42" s="57"/>
+      <c r="EY42" s="57"/>
+      <c r="EZ42" s="57"/>
+      <c r="FA42" s="57"/>
+      <c r="FB42" s="57"/>
+      <c r="FC42" s="57"/>
+      <c r="FD42" s="57"/>
+      <c r="FE42" s="57"/>
+      <c r="FF42" s="57"/>
+      <c r="FG42" s="57"/>
+      <c r="FH42" s="57"/>
+      <c r="FI42" s="57"/>
+      <c r="FK42" s="57"/>
+      <c r="FL42" s="57"/>
+      <c r="FM42" s="57"/>
+      <c r="FN42" s="57"/>
+      <c r="FO42" s="57"/>
+      <c r="FP42" s="57"/>
+      <c r="FQ42" s="57"/>
+      <c r="FR42" s="57"/>
+      <c r="FS42" s="57"/>
+      <c r="FT42" s="57"/>
+      <c r="FU42" s="57"/>
+      <c r="FV42" s="57"/>
+      <c r="FW42" s="57"/>
+      <c r="FX42" s="57"/>
+      <c r="FY42" s="57"/>
+      <c r="FZ42" s="57"/>
+      <c r="GA42" s="57"/>
+      <c r="GB42" s="57"/>
+      <c r="GC42" s="57"/>
+      <c r="GD42" s="57"/>
+      <c r="GE42" s="57"/>
+      <c r="GF42" s="57"/>
+      <c r="GG42" s="57"/>
+      <c r="GH42" s="57"/>
+      <c r="GI42" s="57"/>
+      <c r="GJ42" s="57"/>
+      <c r="GK42" s="57"/>
+      <c r="GL42" s="57"/>
+      <c r="GM42" s="57"/>
+      <c r="GN42" s="57"/>
+      <c r="GO42" s="57"/>
+      <c r="GP42" s="57"/>
+      <c r="GQ42" s="57"/>
+      <c r="GR42" s="57"/>
+      <c r="GS42" s="57"/>
+      <c r="GT42" s="57"/>
+      <c r="GU42" s="57"/>
+      <c r="GV42" s="57"/>
+      <c r="GW42" s="57"/>
+      <c r="GX42" s="57"/>
+      <c r="GY42" s="57"/>
+      <c r="GZ42" s="57"/>
+      <c r="HA42" s="57"/>
+      <c r="HB42" s="57"/>
+      <c r="HC42" s="57"/>
+      <c r="HD42" s="57"/>
+      <c r="HE42" s="57"/>
+      <c r="HF42" s="57"/>
+      <c r="HG42" s="57"/>
+      <c r="HH42" s="57"/>
+      <c r="HI42" s="57"/>
+      <c r="HJ42" s="57"/>
+      <c r="HK42" s="57"/>
+      <c r="HL42" s="57"/>
+      <c r="HM42" s="57"/>
+      <c r="HN42" s="57"/>
+      <c r="HO42" s="57"/>
+      <c r="HP42" s="57"/>
+      <c r="HQ42" s="57"/>
+      <c r="HR42" s="57"/>
+      <c r="HS42" s="57"/>
+      <c r="HT42" s="57"/>
+      <c r="HU42" s="57"/>
+      <c r="HV42" s="57"/>
+      <c r="HW42" s="57"/>
+      <c r="HX42" s="57"/>
+      <c r="HY42" s="57"/>
+      <c r="HZ42" s="57"/>
+      <c r="IA42" s="57"/>
+      <c r="IB42" s="57"/>
+      <c r="IC42" s="57"/>
+      <c r="ID42" s="57"/>
+      <c r="IE42" s="57"/>
+      <c r="IF42" s="57"/>
+      <c r="IG42" s="57"/>
+      <c r="IH42" s="57"/>
+      <c r="II42" s="57"/>
+      <c r="IJ42" s="57"/>
+      <c r="IK42" s="57"/>
+      <c r="IL42" s="57"/>
+      <c r="IM42" s="57"/>
+      <c r="IN42" s="57"/>
+      <c r="IO42" s="57"/>
+      <c r="IP42" s="57"/>
+      <c r="IQ42" s="57"/>
+      <c r="IR42" s="57"/>
+      <c r="IS42" s="57"/>
+      <c r="IT42" s="57"/>
+      <c r="IU42" s="57"/>
+      <c r="IV42" s="57"/>
+      <c r="IW42" s="57"/>
+      <c r="IX42" s="57"/>
+      <c r="IY42" s="57"/>
+      <c r="IZ42" s="57"/>
+      <c r="JA42" s="57"/>
+      <c r="JB42" s="57"/>
+      <c r="JC42" s="57"/>
+      <c r="JD42" s="57"/>
+      <c r="JE42" s="57"/>
+      <c r="JF42" s="57"/>
+      <c r="JG42" s="57"/>
+      <c r="JH42" s="57"/>
+      <c r="JI42" s="57"/>
+      <c r="JJ42" s="57"/>
+      <c r="JK42" s="57"/>
+      <c r="JL42" s="57"/>
+      <c r="JM42" s="57"/>
+      <c r="JN42" s="57"/>
+      <c r="JO42" s="57"/>
+      <c r="JP42" s="57"/>
+      <c r="JQ42" s="57"/>
+      <c r="JR42" s="57"/>
+      <c r="JS42" s="57"/>
+      <c r="JT42" s="57"/>
+      <c r="JU42" s="57"/>
+      <c r="JV42" s="57"/>
+      <c r="JW42" s="57"/>
+      <c r="JX42" s="57"/>
+      <c r="JY42" s="57"/>
+      <c r="JZ42" s="57"/>
+      <c r="KA42" s="57"/>
+      <c r="KB42" s="57"/>
+      <c r="KC42" s="57"/>
+      <c r="KD42" s="57"/>
+      <c r="KE42" s="57"/>
+      <c r="KF42" s="57"/>
+      <c r="KG42" s="57"/>
+      <c r="KH42" s="57"/>
+      <c r="KI42" s="57"/>
+      <c r="KJ42" s="57"/>
+      <c r="KK42" s="57"/>
+      <c r="KL42" s="57"/>
+      <c r="KM42" s="57"/>
+      <c r="KN42" s="57"/>
+      <c r="KO42" s="57"/>
+      <c r="KP42" s="57"/>
+      <c r="KQ42" s="57"/>
+      <c r="KR42" s="57"/>
+      <c r="KS42" s="57"/>
+      <c r="KT42" s="57"/>
+      <c r="KU42" s="57"/>
+      <c r="KV42" s="57"/>
+      <c r="KW42" s="57"/>
+      <c r="KX42" s="57"/>
+      <c r="KY42" s="57"/>
+      <c r="KZ42" s="57"/>
+      <c r="LA42" s="57"/>
+      <c r="LB42" s="57"/>
+      <c r="LC42" s="57"/>
+      <c r="LD42" s="57"/>
+      <c r="LE42" s="57"/>
+      <c r="LF42" s="57"/>
+      <c r="LG42" s="57"/>
+      <c r="LH42" s="57"/>
+      <c r="LI42" s="57"/>
+      <c r="LJ42" s="57"/>
+      <c r="LK42" s="57"/>
+      <c r="LL42" s="57"/>
+      <c r="LM42" s="57"/>
+      <c r="LN42" s="57"/>
+      <c r="LO42" s="57"/>
+      <c r="LP42" s="57"/>
+      <c r="LQ42" s="57"/>
+      <c r="LR42" s="57"/>
+      <c r="LS42" s="57"/>
+      <c r="LT42" s="57"/>
+      <c r="LU42" s="57"/>
+      <c r="LV42" s="57"/>
+      <c r="LW42" s="57"/>
+      <c r="LX42" s="57"/>
+      <c r="LY42" s="57"/>
+      <c r="LZ42" s="57"/>
+      <c r="MA42" s="57"/>
+      <c r="MB42" s="57"/>
+      <c r="MC42" s="57"/>
+      <c r="MD42" s="57"/>
+      <c r="ME42" s="57"/>
+      <c r="MF42" s="57"/>
+      <c r="MG42" s="57"/>
+      <c r="MH42" s="57"/>
+      <c r="MI42" s="57"/>
+      <c r="MJ42" s="57"/>
+      <c r="MK42" s="57"/>
+      <c r="ML42" s="57"/>
+      <c r="MM42" s="57"/>
+      <c r="MN42" s="57"/>
+      <c r="MO42" s="57"/>
+      <c r="MP42" s="57"/>
+      <c r="MQ42" s="57"/>
+      <c r="MR42" s="57"/>
+      <c r="MS42" s="57"/>
+      <c r="MT42" s="57"/>
+      <c r="MU42" s="57"/>
+      <c r="MV42" s="57"/>
+      <c r="MW42" s="57"/>
+      <c r="MX42" s="57"/>
+      <c r="MY42" s="57"/>
+      <c r="MZ42" s="57"/>
+      <c r="NA42" s="57"/>
+      <c r="NB42" s="57"/>
+      <c r="NC42" s="57"/>
+      <c r="ND42" s="57"/>
+      <c r="NE42" s="57"/>
+      <c r="NF42" s="57"/>
+      <c r="NG42" s="57"/>
+      <c r="NH42" s="57"/>
+      <c r="NI42" s="57"/>
+      <c r="NJ42" s="57"/>
+      <c r="NK42" s="57"/>
+      <c r="NL42" s="57"/>
+      <c r="NM42" s="57"/>
+      <c r="NN42" s="57"/>
+      <c r="NO42" s="57"/>
+      <c r="NP42" s="57"/>
+      <c r="NQ42" s="57"/>
+      <c r="NR42" s="57"/>
+      <c r="NS42" s="57"/>
+      <c r="NT42" s="57"/>
+      <c r="NU42" s="57"/>
+      <c r="NV42" s="57"/>
+      <c r="NW42" s="57"/>
+      <c r="NX42" s="57"/>
+      <c r="NY42" s="57"/>
+      <c r="NZ42" s="57"/>
+      <c r="OA42" s="57"/>
+      <c r="OB42" s="57"/>
+      <c r="OC42" s="57"/>
+      <c r="OD42" s="57"/>
+      <c r="OE42" s="57"/>
+      <c r="OF42" s="57"/>
+      <c r="OG42" s="57"/>
+      <c r="OH42" s="57"/>
+      <c r="OI42" s="57"/>
+      <c r="OJ42" s="57"/>
+      <c r="OK42" s="57"/>
+      <c r="OL42" s="57"/>
+      <c r="OM42" s="57"/>
+      <c r="ON42" s="57"/>
+      <c r="OO42" s="57"/>
+      <c r="OP42" s="57"/>
+      <c r="OQ42" s="57"/>
+      <c r="OR42" s="57"/>
+      <c r="OS42" s="57"/>
+      <c r="OT42" s="57"/>
+      <c r="OU42" s="57"/>
+      <c r="OV42" s="57"/>
+      <c r="OW42" s="57"/>
+      <c r="OX42" s="57"/>
+      <c r="OY42" s="57"/>
+      <c r="OZ42" s="57"/>
+      <c r="PA42" s="57"/>
+      <c r="PB42" s="57"/>
+      <c r="PC42" s="57"/>
+      <c r="PD42" s="57"/>
+      <c r="PE42" s="57"/>
+      <c r="PF42" s="57"/>
+      <c r="PG42" s="57"/>
+      <c r="PH42" s="57"/>
+      <c r="PI42" s="57"/>
+      <c r="PJ42" s="57"/>
+      <c r="PK42" s="57"/>
+      <c r="PL42" s="57"/>
+      <c r="PM42" s="57"/>
+      <c r="PN42" s="57"/>
+      <c r="PO42" s="57"/>
+      <c r="PP42" s="57"/>
+      <c r="PQ42" s="57"/>
+      <c r="PR42" s="57"/>
+      <c r="PS42" s="57"/>
+      <c r="PT42" s="57"/>
+      <c r="PU42" s="57"/>
+      <c r="PV42" s="57"/>
+      <c r="PW42" s="57"/>
+      <c r="PX42" s="57"/>
+      <c r="PY42" s="57"/>
+      <c r="PZ42" s="57"/>
+      <c r="QA42" s="57"/>
+      <c r="QB42" s="57"/>
+      <c r="QC42" s="57"/>
+      <c r="QD42" s="57"/>
+      <c r="QE42" s="57"/>
+      <c r="QF42" s="57"/>
+      <c r="QG42" s="57"/>
+      <c r="QH42" s="57"/>
+      <c r="QI42" s="57"/>
+      <c r="QJ42" s="57"/>
+      <c r="QK42" s="57"/>
+      <c r="QL42" s="57"/>
+      <c r="QM42" s="57"/>
+      <c r="QN42" s="57"/>
+      <c r="QO42" s="57"/>
+      <c r="QP42" s="57"/>
+      <c r="QQ42" s="57"/>
+      <c r="QR42" s="57"/>
+      <c r="QS42" s="57"/>
+      <c r="QT42" s="57"/>
+      <c r="QU42" s="57"/>
+      <c r="QV42" s="57"/>
+      <c r="QW42" s="57"/>
+      <c r="QX42" s="57"/>
+      <c r="QY42" s="57"/>
+      <c r="QZ42" s="57"/>
+      <c r="RA42" s="57"/>
+      <c r="RB42" s="57"/>
+      <c r="RC42" s="57"/>
+      <c r="RD42" s="57"/>
+      <c r="RE42" s="57"/>
+      <c r="RF42" s="57"/>
+      <c r="RG42" s="57"/>
+      <c r="RH42" s="57"/>
+      <c r="RI42" s="57"/>
+      <c r="RJ42" s="57"/>
+      <c r="RK42" s="57"/>
+      <c r="RL42" s="57"/>
+      <c r="RM42" s="57"/>
+      <c r="RN42" s="57"/>
+      <c r="RO42" s="57"/>
+      <c r="RP42" s="57"/>
+      <c r="RQ42" s="57"/>
+      <c r="RR42" s="57"/>
+      <c r="RS42" s="57"/>
+      <c r="RT42" s="57"/>
+      <c r="RU42" s="57"/>
+      <c r="RV42" s="57"/>
+      <c r="RW42" s="57"/>
+      <c r="RX42" s="57"/>
+      <c r="RY42" s="57"/>
+      <c r="RZ42" s="57"/>
+      <c r="SA42" s="57"/>
+      <c r="SB42" s="57"/>
+      <c r="SC42" s="57"/>
+      <c r="SD42" s="57"/>
+      <c r="SE42" s="57"/>
+      <c r="SF42" s="57"/>
+      <c r="SG42" s="57"/>
+      <c r="SH42" s="57"/>
+      <c r="SI42" s="57"/>
+      <c r="SJ42" s="57"/>
+      <c r="SK42" s="57"/>
+      <c r="SL42" s="57"/>
+      <c r="SM42" s="57"/>
+      <c r="SN42" s="57"/>
+      <c r="SO42" s="57"/>
+      <c r="SP42" s="57"/>
+      <c r="SQ42" s="57"/>
+      <c r="SR42" s="57"/>
+      <c r="SS42" s="57"/>
+      <c r="ST42" s="57"/>
+      <c r="SU42" s="57"/>
+      <c r="SV42" s="57"/>
+      <c r="SW42" s="57"/>
+      <c r="SX42" s="57"/>
+      <c r="SY42" s="57"/>
+      <c r="SZ42" s="57"/>
+      <c r="TA42" s="57"/>
+      <c r="TB42" s="57"/>
+      <c r="TC42" s="57"/>
+      <c r="TD42" s="57"/>
+      <c r="TE42" s="57"/>
+      <c r="TF42" s="57"/>
+      <c r="TG42" s="57"/>
+      <c r="TH42" s="57"/>
+      <c r="TI42" s="57"/>
+      <c r="TJ42" s="57"/>
+      <c r="TK42" s="57"/>
+      <c r="TL42" s="57"/>
+      <c r="TM42" s="57"/>
+      <c r="TN42" s="57"/>
+      <c r="TO42" s="57"/>
+      <c r="TP42" s="57"/>
+      <c r="TQ42" s="57"/>
+      <c r="TR42" s="57"/>
+      <c r="TS42" s="57"/>
+      <c r="TT42" s="57"/>
+      <c r="TU42" s="57"/>
+      <c r="TV42" s="57"/>
+      <c r="TW42" s="57"/>
+      <c r="TX42" s="57"/>
+      <c r="TY42" s="57"/>
+      <c r="TZ42" s="57"/>
+      <c r="UA42" s="57"/>
+      <c r="UB42" s="57"/>
+      <c r="UC42" s="57"/>
+      <c r="UD42" s="57"/>
+      <c r="UE42" s="57"/>
+      <c r="UF42" s="57"/>
+      <c r="UG42" s="57"/>
+      <c r="UH42" s="57"/>
+      <c r="UI42" s="57"/>
+      <c r="UJ42" s="57"/>
+      <c r="UK42" s="57"/>
+      <c r="UL42" s="57"/>
+      <c r="UM42" s="57"/>
+      <c r="UN42" s="57"/>
+      <c r="UO42" s="57"/>
+      <c r="UP42" s="57"/>
+      <c r="UQ42" s="57"/>
+      <c r="UR42" s="57"/>
+      <c r="US42" s="57"/>
+      <c r="UT42" s="57"/>
+      <c r="UU42" s="57"/>
+      <c r="UV42" s="57"/>
+      <c r="UW42" s="57"/>
+      <c r="UX42" s="57"/>
+      <c r="UY42" s="57"/>
+      <c r="UZ42" s="57"/>
+      <c r="VA42" s="57"/>
+      <c r="VB42" s="57"/>
+      <c r="VC42" s="57"/>
+      <c r="VD42" s="57"/>
+      <c r="VE42" s="57"/>
+      <c r="VF42" s="57"/>
+      <c r="VG42" s="57"/>
+      <c r="VH42" s="57"/>
+      <c r="VI42" s="57"/>
+      <c r="VJ42" s="57"/>
+      <c r="VK42" s="57"/>
+      <c r="VL42" s="57"/>
+      <c r="VM42" s="57"/>
+      <c r="VN42" s="57"/>
+      <c r="VO42" s="57"/>
+      <c r="VP42" s="57"/>
+      <c r="VQ42" s="57"/>
+      <c r="VR42" s="57"/>
+      <c r="VS42" s="57"/>
+      <c r="VT42" s="57"/>
+      <c r="VU42" s="57"/>
+      <c r="VV42" s="57"/>
+      <c r="VW42" s="57"/>
+      <c r="VX42" s="57"/>
+      <c r="VY42" s="57"/>
+      <c r="VZ42" s="57"/>
+      <c r="WA42" s="57"/>
+      <c r="WB42" s="57"/>
+      <c r="WC42" s="57"/>
+      <c r="WD42" s="57"/>
+      <c r="WE42" s="57"/>
+      <c r="WF42" s="57"/>
+      <c r="WG42" s="57"/>
+      <c r="WH42" s="57"/>
+      <c r="WI42" s="57"/>
+      <c r="WJ42" s="57"/>
+      <c r="WK42" s="57"/>
+      <c r="WL42" s="57"/>
+      <c r="WM42" s="57"/>
+      <c r="WN42" s="57"/>
+      <c r="WO42" s="57"/>
+      <c r="WP42" s="57"/>
+      <c r="WQ42" s="57"/>
+      <c r="WR42" s="57"/>
+      <c r="WS42" s="57"/>
+      <c r="WT42" s="57"/>
+      <c r="WU42" s="57"/>
+      <c r="WV42" s="57"/>
+      <c r="WW42" s="57"/>
+      <c r="WX42" s="57"/>
+      <c r="WY42" s="57"/>
+      <c r="WZ42" s="57"/>
+      <c r="XA42" s="57"/>
+      <c r="XB42" s="57"/>
+      <c r="XC42" s="57"/>
+      <c r="XD42" s="57"/>
+      <c r="XE42" s="57"/>
+      <c r="XF42" s="57"/>
+      <c r="XG42" s="57"/>
+      <c r="XH42" s="57"/>
+      <c r="XI42" s="57"/>
+      <c r="XJ42" s="57"/>
+      <c r="XK42" s="57"/>
+      <c r="XL42" s="57"/>
+      <c r="XM42" s="57"/>
+      <c r="XN42" s="57"/>
+      <c r="XO42" s="57"/>
+      <c r="XP42" s="57"/>
+      <c r="XQ42" s="57"/>
+      <c r="XR42" s="57"/>
+      <c r="XS42" s="57"/>
+      <c r="XT42" s="57"/>
+      <c r="XU42" s="57"/>
+      <c r="XV42" s="57"/>
+      <c r="XW42" s="57"/>
+      <c r="XX42" s="57"/>
+      <c r="XY42" s="57"/>
+      <c r="XZ42" s="57"/>
+      <c r="YA42" s="57"/>
+      <c r="YB42" s="57"/>
+      <c r="YC42" s="57"/>
+      <c r="YD42" s="57"/>
+      <c r="YE42" s="57"/>
+      <c r="YF42" s="57"/>
+      <c r="YG42" s="57"/>
+      <c r="YH42" s="57"/>
+      <c r="YI42" s="57"/>
+      <c r="YJ42" s="57"/>
+      <c r="YK42" s="57"/>
+      <c r="YL42" s="57"/>
+      <c r="YM42" s="57"/>
+      <c r="YN42" s="57"/>
+      <c r="YO42" s="57"/>
+      <c r="YP42" s="57"/>
+      <c r="YQ42" s="57"/>
+      <c r="YR42" s="57"/>
+      <c r="YS42" s="57"/>
+      <c r="YT42" s="57"/>
+      <c r="YU42" s="57"/>
+      <c r="YV42" s="57"/>
+      <c r="YW42" s="57"/>
+      <c r="YX42" s="57"/>
+      <c r="YY42" s="57"/>
+      <c r="YZ42" s="57"/>
+      <c r="ZB42" s="57"/>
+      <c r="ZC42" s="57"/>
+      <c r="ZD42" s="57"/>
+      <c r="ZE42" s="57"/>
+      <c r="ZF42" s="57"/>
+      <c r="ZG42" s="57"/>
+      <c r="ZL42" s="57"/>
+      <c r="ZM42" s="57"/>
+      <c r="ZN42" s="57"/>
+      <c r="ZP42" s="57"/>
+      <c r="ZQ42" s="57"/>
+      <c r="ZR42" s="57"/>
+      <c r="ZS42" s="57"/>
+      <c r="ZT42" s="57"/>
+      <c r="ZU42" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
+  <mergeCells count="106">
     <mergeCell ref="DB1:FI2"/>
     <mergeCell ref="EW3:FI3"/>
     <mergeCell ref="EG4:EV4"/>
@@ -30102,26 +30812,34 @@
     <mergeCell ref="DN30:EC30"/>
     <mergeCell ref="ED30:ES30"/>
     <mergeCell ref="ET30:FI30"/>
-    <mergeCell ref="CP31:DM31"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="R31:CO31"/>
+    <mergeCell ref="CP31:DA31"/>
+    <mergeCell ref="DB31:DM31"/>
     <mergeCell ref="DN31:EC31"/>
     <mergeCell ref="ED31:ES31"/>
     <mergeCell ref="ET31:FI31"/>
-    <mergeCell ref="I34:P34"/>
-    <mergeCell ref="Q34:BA34"/>
-    <mergeCell ref="BC34:CI34"/>
-    <mergeCell ref="CK34:FI34"/>
+    <mergeCell ref="CP32:DM32"/>
+    <mergeCell ref="DN32:EC32"/>
+    <mergeCell ref="ED32:ES32"/>
+    <mergeCell ref="ET32:FI32"/>
+    <mergeCell ref="I35:P35"/>
     <mergeCell ref="Q35:BA35"/>
     <mergeCell ref="BC35:CI35"/>
     <mergeCell ref="CK35:FI35"/>
-    <mergeCell ref="U36:Z36"/>
-    <mergeCell ref="I38:P38"/>
-    <mergeCell ref="Q38:BA38"/>
-    <mergeCell ref="BC38:CI38"/>
-    <mergeCell ref="CK38:FI38"/>
+    <mergeCell ref="Q36:BA36"/>
+    <mergeCell ref="BC36:CI36"/>
+    <mergeCell ref="CK36:FI36"/>
+    <mergeCell ref="U37:Z37"/>
+    <mergeCell ref="I39:P39"/>
     <mergeCell ref="Q39:BA39"/>
     <mergeCell ref="BC39:CI39"/>
     <mergeCell ref="CK39:FI39"/>
-    <mergeCell ref="U40:Z40"/>
+    <mergeCell ref="Q40:BA40"/>
+    <mergeCell ref="BC40:CI40"/>
+    <mergeCell ref="CK40:FI40"/>
+    <mergeCell ref="U41:Z41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -30130,7 +30848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6b929e52-dc8a-4d88-8258-8c5c67facdd2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07054d6d-fb66-4f91-a368-2745f26244ce}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/ks_2/utils/output.xlsx
+++ b/ks_2/utils/output.xlsx
@@ -1122,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{aacd57a6-1989-4c3f-bc01-484456d57a31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f4f84766-53f0-4f6b-b378-3a9df4c78168}">
   <dimension ref="A1:ZX42"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -30848,7 +30848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07054d6d-fb66-4f91-a368-2745f26244ce}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0b67f1d4-6ea5-4c00-9a74-a8580afa0386}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
